--- a/latex/calc/DC_Converter_Calc.xlsx
+++ b/latex/calc/DC_Converter_Calc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Privat\Git\Projektarbeit-Hochvolt-Elektrik-Komponenten-FSE-Fahrzeug\ressourcen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Privat\Git\Projektarbeit-Hochvolt-Elektrik-Komponenten-FSE-Fahrzeug\latex\calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456948AC-4549-4E0E-B6D0-DEAA136CF9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1604778-EE36-4885-B8AC-0D54F2F624FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="191">
   <si>
     <t>Eingangsparameter</t>
   </si>
@@ -194,18 +194,6 @@
     <t>R_S</t>
   </si>
   <si>
-    <t xml:space="preserve">Switch timing ? </t>
-  </si>
-  <si>
-    <t>!todo!</t>
-  </si>
-  <si>
-    <t>Soft start</t>
-  </si>
-  <si>
-    <t>external circuit for shutdown and start</t>
-  </si>
-  <si>
     <t>Voltage Ripple requrement</t>
   </si>
   <si>
@@ -224,9 +212,6 @@
     <t>uF</t>
   </si>
   <si>
-    <t>große kapazitive last -&gt; strakes schwingen an V-out (comp und FB beachten)</t>
-  </si>
-  <si>
     <t>Foldback ratio</t>
   </si>
   <si>
@@ -599,9 +584,6 @@
     <t>I Ripple</t>
   </si>
   <si>
-    <t>I Ripple neu</t>
-  </si>
-  <si>
     <t>&lt;- fehler fläche falsch</t>
   </si>
   <si>
@@ -615,19 +597,32 @@
   </si>
   <si>
     <t>RT_th_gesamt</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>I Ripple neu (p-p)</t>
+  </si>
+  <si>
+    <t>D_Avg</t>
+  </si>
+  <si>
+    <t>Vtrip max muss größer Vtrip sein</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.000%"/>
+    <numFmt numFmtId="173" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -662,8 +657,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -694,6 +695,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -709,7 +716,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -720,14 +727,11 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -744,8 +748,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -754,9 +760,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="173" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -780,16 +793,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -804,8 +817,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10919460" y="167640"/>
-          <a:ext cx="4625340" cy="2362200"/>
+          <a:off x="11010900" y="312420"/>
+          <a:ext cx="4625340" cy="3276600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -841,13 +854,13 @@
         <a:p>
           <a:r>
             <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>Todo</a:t>
+            <a:t>Todo:</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>Windungszahlen haupt</a:t>
+            <a:t>X Windungszahlen haupt</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="de-DE" sz="1100" baseline="0"/>
@@ -857,56 +870,74 @@
         <a:p>
           <a:r>
             <a:rPr lang="de-DE" sz="1100" baseline="0"/>
-            <a:t>Eimgamngspannungen</a:t>
+            <a:t>X Eimgamngspannungen</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="de-DE" sz="1100" baseline="0"/>
-            <a:t>Ausgangsspannungen</a:t>
+            <a:t>X Ausgangsspannungen</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="de-DE" sz="1100" baseline="0"/>
-            <a:t>Output inductor</a:t>
+            <a:t>X Output inductor</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="de-DE" sz="1100" baseline="0"/>
-            <a:t>output capacitance</a:t>
+            <a:t>X output capacitance</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="de-DE" sz="1100" baseline="0"/>
-            <a:t>F_Osc decision &amp; resistor setting</a:t>
+            <a:t>X F_Osc decision &amp; resistor setting</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="de-DE" sz="1100" baseline="0"/>
-            <a:t>Wiederstandsnetzwerke</a:t>
+            <a:t>X Höhere F_osc prüfen und output Induct und Cap verkleinern</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="de-DE" sz="1100" baseline="0"/>
-            <a:t>Soft start Cap</a:t>
+            <a:t>Sonder wiederstände durch Wiederstandsnetzwerke ersetzten (Kosten) und 	BOM klein halten</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="de-DE" sz="1100" baseline="0"/>
-            <a:t>Bauteildimensionierung (Mosfet/Dioden etc.)</a:t>
+            <a:t>Soft start Cap dimensionierung</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="de-DE" sz="1100" baseline="0"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:t>Ein und ausschaltverhalten betrachten, Herunterfahren des Chips vor 	trennung von HV- sicher stellen</a:t>
+          </a:r>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="de-DE" sz="1100" baseline="0"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:t>Komoensationsnetzwerk im Betrieb ausfahren und nachrechnen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:t>Testdaten aufnehmen und mit berechnung vergleichen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:t>Y-Kondensator auslegen</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:endParaRPr lang="de-DE" sz="1100" baseline="0"/>
@@ -919,13 +950,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>512444</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>91750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -963,13 +994,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>518161</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>170422</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1007,13 +1038,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>487681</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>554903</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1051,13 +1082,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>82505</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>119029</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>22531</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>172295</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1100,7 +1131,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>361195</xdr:colOff>
+      <xdr:colOff>134566</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>22381</xdr:rowOff>
     </xdr:to>
@@ -1137,16 +1168,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>343164</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>127437</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>173180</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>57098</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>131708</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>547</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571324</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>111916</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1169,8 +1200,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8278474" y="10256782"/>
-          <a:ext cx="1569785" cy="1582947"/>
+          <a:off x="10970134" y="8233944"/>
+          <a:ext cx="1617344" cy="1508480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1181,16 +1212,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>445836</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>37931</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>205513</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>32070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>249746</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>133089</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>20853</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>134847</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1213,8 +1244,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8381146" y="11881776"/>
-          <a:ext cx="1569911" cy="1249586"/>
+          <a:off x="11612067" y="9844285"/>
+          <a:ext cx="1632710" cy="1185404"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1227,13 +1258,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>406200</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>174061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>778422</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>169837</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1271,13 +1302,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>20508</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>140818</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>18197</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>464</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1315,13 +1346,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>61912</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>2930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>133348</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>167720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1357,16 +1388,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>532055</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>110714</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>254149</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>164502</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>441736</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>11766</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>163830</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>65554</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1381,8 +1412,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9999905" y="14226764"/>
-          <a:ext cx="5396081" cy="4063477"/>
+          <a:off x="15332784" y="12894384"/>
+          <a:ext cx="5396081" cy="4024817"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1530,12 +1561,56 @@
           </a:r>
           <a:r>
             <a:rPr lang="de-DE" sz="1100" baseline="0"/>
-            <a:t> zukunft definitiv potential vorhanden die schaltfrequenz zu vergrößern und den wandler damit kleiner zu halten. Aber hier nur Proof of Concept und damit so wenig wie möglich ändern</a:t>
+            <a:t> zukunft definitiv potential vorhanden die schaltfrequenz zu vergrößern und den wandler damit kleiner zu halten. Aber hier nur Proof of Concept und damit so wenig wie möglich zum example Circuit ändern</a:t>
           </a:r>
           <a:endParaRPr lang="de-DE" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>446689</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>141890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>914399</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>56289</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Grafik 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A69A582D-F5B8-4251-7270-906201BA4C15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4882055" y="21845752"/>
+          <a:ext cx="1902372" cy="462382"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1804,115 +1879,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X159"/>
+  <dimension ref="A1:X160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D137" sqref="D137"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E153" sqref="E153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="J2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="12">
         <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="J3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G3" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="12">
         <v>960</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="J4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G4" s="32" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="12">
         <v>230</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>174</v>
-      </c>
-      <c r="J5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="12">
         <v>630</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="12">
         <f>B4/B3</f>
         <v>40</v>
       </c>
@@ -1920,11 +1983,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="12">
         <v>100000</v>
       </c>
       <c r="C9" t="s">
@@ -1934,74 +1997,74 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="14">
+        <v>58</v>
+      </c>
+      <c r="B10" s="12">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B11" s="14">
+        <v>110</v>
+      </c>
+      <c r="B11" s="12">
         <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>147</v>
-      </c>
-      <c r="B13" s="14">
+        <v>142</v>
+      </c>
+      <c r="B13" s="12">
         <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>150</v>
-      </c>
-      <c r="B14" s="14">
+        <v>145</v>
+      </c>
+      <c r="B14" s="12">
         <v>125</v>
       </c>
       <c r="C14" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="12">
         <v>0.6</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="12">
         <v>0.7</v>
       </c>
       <c r="E16" t="s">
@@ -2012,1998 +2075,2013 @@
       <c r="A17" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="14">
-        <f>(B3/B6)*B21</f>
+      <c r="B17" s="6">
+        <f>(B3/B6)*B23</f>
         <v>0.20931449502878077</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="10">
+        <f>(B3/B5)*B23</f>
+        <v>0.5733397037744864</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19" s="6">
+        <f>(B17+B18)/2</f>
+        <v>0.39132709940163357</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B21" s="33">
         <f>(B5/B3)*B16</f>
         <v>5.75</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D21" s="33">
         <f>(B5/B3)*D16</f>
         <v>6.708333333333333</v>
       </c>
-      <c r="M19" s="29"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="M21" s="26"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="15">
-        <f>I23</f>
+      <c r="B22" s="13">
+        <f>I25</f>
         <v>10.989010989010989</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="7">
-        <f>I23/I25</f>
-        <v>5.4945054945054945</v>
-      </c>
-      <c r="C21" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" s="18">
-        <f>1/B21</f>
-        <v>0.182</v>
-      </c>
-      <c r="E21" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" t="s">
-        <v>29</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="7">
+        <f>I25/I27</f>
+        <v>5.4945054945054945</v>
+      </c>
+      <c r="C23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="15">
+        <f>1/B23</f>
+        <v>0.182</v>
+      </c>
+      <c r="E23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="14">
-        <f>I24</f>
+      <c r="B25" s="12">
+        <f>I26</f>
         <v>3900</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C25" t="s">
         <v>13</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E25" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F25" s="12">
         <f>1/0.083</f>
         <v>12.048192771084336</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G25" s="12">
         <f>1/0.182</f>
         <v>5.4945054945054945</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H25" s="12">
         <f>1/0.363</f>
         <v>2.7548209366391188</v>
       </c>
-      <c r="I23" s="14">
+      <c r="I25" s="12">
         <f>1/0.091</f>
         <v>10.989010989010989</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="7">
-        <f>B23/(B20^2)</f>
-        <v>32.295899999999996</v>
-      </c>
-      <c r="C24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="14">
-        <v>3100</v>
-      </c>
-      <c r="G24" s="14">
-        <v>2600</v>
-      </c>
-      <c r="H24" s="14">
-        <v>2600</v>
-      </c>
-      <c r="I24" s="14">
-        <v>3900</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="14">
-        <v>2</v>
-      </c>
-      <c r="G25" s="14">
-        <v>1</v>
-      </c>
-      <c r="H25" s="14">
-        <v>1</v>
-      </c>
-      <c r="I25" s="14">
-        <v>2</v>
-      </c>
-    </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="14">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="B26" s="7">
+        <f>B25/(B22^2)</f>
+        <v>32.295899999999996</v>
       </c>
       <c r="C26" t="s">
         <v>13</v>
       </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="12">
+        <v>3100</v>
+      </c>
+      <c r="G26" s="12">
+        <v>2600</v>
+      </c>
+      <c r="H26" s="12">
+        <v>2600</v>
+      </c>
+      <c r="I26" s="12">
+        <v>3900</v>
+      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="12">
+        <v>2</v>
+      </c>
+      <c r="G27" s="12">
+        <v>1</v>
+      </c>
+      <c r="H27" s="12">
+        <v>1</v>
+      </c>
+      <c r="I27" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="12">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="12">
-        <f>1-(B26/B23)</f>
+      <c r="B29" s="11">
+        <f>1-(B28/B25)</f>
         <v>0.99923076923076926</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>186</v>
-      </c>
-      <c r="B30" s="14">
-        <v>4</v>
-      </c>
-      <c r="C30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" t="s">
-        <v>177</v>
-      </c>
-    </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>178</v>
-      </c>
-      <c r="B31" s="30">
-        <f>B30/B7</f>
-        <v>0.1</v>
-      </c>
+      <c r="A31" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>181</v>
+      </c>
+      <c r="B32" s="12">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>173</v>
+      </c>
+      <c r="B33" s="34">
+        <f>B32/B7</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="8">
-        <f>(1-((1/B5)*B21*B3))*1/B30*B3*1/B9</f>
+      <c r="B34" s="8">
+        <f>(1-((1/B5)*B23*B3))*1/B32*B3*1/B9</f>
         <v>2.5599617773530817E-5</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C34" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="11">
-        <f>B32*10^6</f>
+      <c r="D34" s="10">
+        <f>B34*10^6</f>
         <v>25.599617773530817</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E34" t="s">
         <v>13</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="8">
-        <f>(1-((1/B6)*B21*B3))*1/B30*B3*1/B9</f>
+      <c r="B35" s="8">
+        <f>(1-((1/B6)*B23*B3))*1/B32*B3*1/B9</f>
         <v>4.7441130298273156E-5</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C35" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="11">
-        <f>B33*10^6</f>
+      <c r="D35" s="33">
+        <f>B35*10^6</f>
         <v>47.441130298273158</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E35" t="s">
         <v>13</v>
       </c>
-      <c r="F33" t="s">
-        <v>182</v>
-      </c>
-      <c r="G33" s="2" t="s">
+      <c r="F35" t="s">
+        <v>177</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H35" t="s">
         <v>33</v>
       </c>
-      <c r="I33" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="I35" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B36" s="12">
         <v>22.4</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C36" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="F34" t="s">
-        <v>184</v>
-      </c>
-      <c r="G34" t="s">
-        <v>185</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="D36" s="2"/>
+      <c r="F36" t="s">
+        <v>179</v>
+      </c>
+      <c r="G36" t="s">
+        <v>180</v>
+      </c>
+      <c r="H36" t="s">
         <v>33</v>
       </c>
-      <c r="I34" s="25" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>187</v>
-      </c>
-      <c r="B35" s="6">
-        <f>B3/(B34*10^-6*B9)*(1-(B3/B6)*B21)</f>
+      <c r="I36" s="22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>188</v>
+      </c>
+      <c r="B37" s="32">
+        <f>B3/(B36*10^-6*B9)*(1-(B3/B6)*B23)</f>
         <v>8.4716304104059219</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C37" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="I35" s="25"/>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="D36" s="2"/>
-      <c r="I36" s="25"/>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38" s="16">
+      <c r="I37" s="22"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D38" s="2"/>
+      <c r="I38" s="22"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="14">
         <v>0.01</v>
       </c>
-      <c r="C38" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="9">
-        <f>B3*B38</f>
+      <c r="C40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="9">
+        <f>B3*B40</f>
         <v>0.24</v>
       </c>
-      <c r="E38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>59</v>
-      </c>
-      <c r="B39" s="14">
-        <f>F39*10^-3</f>
+      <c r="E40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="12">
+        <f>F41*10^-3</f>
         <v>1.6021949078138715E-3</v>
       </c>
-      <c r="D39" t="s">
-        <v>179</v>
-      </c>
-      <c r="F39">
+      <c r="D41" t="s">
+        <v>174</v>
+      </c>
+      <c r="F41" s="12">
         <f>1/((1/55.3)+(1/3.3)+(1/3.3))</f>
         <v>1.6021949078138715</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G41" t="s">
         <v>38</v>
       </c>
-      <c r="H39" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>60</v>
-      </c>
-      <c r="B40" s="8">
-        <f>B35/(8*B9*(D38-B30*B39))</f>
+      <c r="H41" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="8">
+        <f>B37/(8*B9*(D40-B32*B41))</f>
         <v>4.5333630246423112E-5</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C42" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="17">
-        <f>B40*10^6</f>
+      <c r="D42" s="33">
+        <f>B42*10^6</f>
         <v>45.333630246423112</v>
       </c>
-      <c r="E40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="E42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="12">
-        <f>(B21*96*10^-3)/(0.5*B30*B7*1.3)</f>
+      <c r="B44" s="11">
+        <f>(B23*96*10^-3)/(0.5*B32*B7*1.3)</f>
         <v>5.0718512256973788E-3</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C44" t="s">
         <v>37</v>
       </c>
-      <c r="D42" s="11">
-        <f>B42*10^3</f>
+      <c r="D44" s="33">
+        <f>B44*10^3</f>
         <v>5.0718512256973787</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E44" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="14">
+      <c r="B46" s="12">
         <v>1</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C46" t="s">
         <v>41</v>
       </c>
-      <c r="D44" s="6">
-        <f>B44*10^6</f>
+      <c r="D46" s="6">
+        <f>B46*10^6</f>
         <v>1000000</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E46" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="10">
-        <f>(D44*((1/((B5/1.25)-1))+1))/(B6/1.25)</f>
+      <c r="B47" s="35">
+        <f>(D46*((1/((B5/1.25)-1))+1))/(B6/1.25)</f>
         <v>1994.9692080839623</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C47" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="10">
-        <f>B45*((B6/1.25)-1)-D44</f>
+      <c r="B48" s="35">
+        <f>B47*((B6/1.25)-1)-D46</f>
         <v>3469.5116662330693</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C48" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="6">
-        <f>(B5/D44)/((1/(B45+B46))+(1/D44))</f>
+      <c r="B49" s="6">
+        <f>(B5/D46)/((1/(B47+B48))+(1/D46))</f>
         <v>1.2500000000000209</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C49" t="s">
         <v>9</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D49" t="s">
         <v>45</v>
       </c>
-      <c r="E47" s="11">
-        <f>(B6/D44)/((1/(B45+B46))+(1/D44))</f>
+      <c r="E49" s="10">
+        <f>(B6/D46)/((1/(B47+B48))+(1/D46))</f>
         <v>3.423913043478318</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F49" t="s">
         <v>9</v>
       </c>
-      <c r="R47" t="s">
+      <c r="R49" t="s">
+        <v>82</v>
+      </c>
+      <c r="S49">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="T49" t="s">
+        <v>20</v>
+      </c>
+      <c r="U49" t="s">
         <v>87</v>
       </c>
-      <c r="S47">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="T47" t="s">
+      <c r="V49" t="s">
+        <v>81</v>
+      </c>
+      <c r="W49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="36">
+        <f>(D16/(0.725*((B9/1000)/300)*(1.25/B49)))*51.1*10^3</f>
+        <v>148013.79310345076</v>
+      </c>
+      <c r="C50" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="35">
+        <f>B50*10^-3</f>
+        <v>148.01379310345078</v>
+      </c>
+      <c r="E50" t="s">
+        <v>46</v>
+      </c>
+      <c r="F50" s="5"/>
+      <c r="R50" t="s">
+        <v>83</v>
+      </c>
+      <c r="S50">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s">
         <v>20</v>
       </c>
-      <c r="U47" t="s">
-        <v>92</v>
-      </c>
-      <c r="V47" t="s">
-        <v>86</v>
-      </c>
-      <c r="W47" t="s">
+      <c r="V50" t="s">
+        <v>89</v>
+      </c>
+      <c r="W50">
+        <v>39.85</v>
+      </c>
+      <c r="X50" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A51" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="R51" t="s">
+        <v>84</v>
+      </c>
+      <c r="S51">
+        <v>1043</v>
+      </c>
+      <c r="T51" t="s">
+        <v>18</v>
+      </c>
+      <c r="V51" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>39</v>
-      </c>
-      <c r="B48" s="10">
-        <f>(D16/(0.725*((B9/1000)/300)*(1.25/B47)))*51.1*10^3</f>
-        <v>148013.79310345076</v>
-      </c>
-      <c r="C48" t="s">
-        <v>46</v>
-      </c>
-      <c r="D48" s="10">
-        <f>B48*10^-3</f>
-        <v>148.01379310345078</v>
-      </c>
-      <c r="E48" t="s">
-        <v>46</v>
-      </c>
-      <c r="F48" s="5"/>
-      <c r="R48" t="s">
-        <v>88</v>
-      </c>
-      <c r="S48">
-        <v>3</v>
-      </c>
-      <c r="T48" t="s">
-        <v>20</v>
-      </c>
-      <c r="V48" t="s">
-        <v>94</v>
-      </c>
-      <c r="W48">
-        <v>39.85</v>
-      </c>
-      <c r="X48" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A49" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="31"/>
-      <c r="R49" t="s">
-        <v>89</v>
-      </c>
-      <c r="S49">
-        <v>1043</v>
-      </c>
-      <c r="T49" t="s">
-        <v>18</v>
-      </c>
-      <c r="V49" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="11">
+      <c r="B52" s="10">
         <f>B17</f>
         <v>0.20931449502878077</v>
       </c>
-      <c r="D50" t="s">
-        <v>181</v>
-      </c>
-      <c r="R50" t="s">
-        <v>90</v>
-      </c>
-      <c r="S50">
+      <c r="D52" t="s">
+        <v>176</v>
+      </c>
+      <c r="R52" t="s">
+        <v>85</v>
+      </c>
+      <c r="S52">
         <v>953</v>
       </c>
-      <c r="T50" t="s">
+      <c r="T52" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="8">
-        <f>(10*(1-B17)^2)/(B23*(2*PI()*(B9/1000))^2)</f>
+      <c r="B53" s="8">
+        <f>(10*(1-B17)^2)/(B25*(2*PI()*(B9/1000))^2)</f>
         <v>4.0605345564331669E-9</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C53" t="s">
         <v>48</v>
       </c>
-      <c r="D51" s="13">
-        <f>B51*10^9</f>
+      <c r="D53" s="37">
+        <f>B53*10^9</f>
         <v>4.0605345564331667</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E53" t="s">
         <v>49</v>
       </c>
-      <c r="G51" s="1"/>
-      <c r="R51" t="s">
+      <c r="G53" s="1"/>
+      <c r="R53" t="s">
+        <v>86</v>
+      </c>
+      <c r="S53" s="4">
+        <f>(S52/S51)*100</f>
+        <v>91.371045062320235</v>
+      </c>
+      <c r="T53" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" s="8">
+        <f>6*B53</f>
+        <v>2.4363207338599E-8</v>
+      </c>
+      <c r="C54" t="s">
+        <v>48</v>
+      </c>
+      <c r="D54" s="37">
+        <f>B54*10^9</f>
+        <v>24.363207338599</v>
+      </c>
+      <c r="E54" t="s">
+        <v>49</v>
+      </c>
+      <c r="R54" t="s">
         <v>91</v>
       </c>
-      <c r="S51" s="4">
-        <f>(S50/S49)*100</f>
-        <v>91.371045062320235</v>
-      </c>
-      <c r="T51" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" s="8">
-        <f>6*B51</f>
-        <v>2.4363207338599E-8</v>
-      </c>
-      <c r="C52" t="s">
-        <v>48</v>
-      </c>
-      <c r="D52" s="13">
-        <f>B52*10^9</f>
-        <v>24.363207338599</v>
-      </c>
-      <c r="E52" t="s">
-        <v>49</v>
-      </c>
-      <c r="R52" t="s">
-        <v>96</v>
-      </c>
-      <c r="S52">
+      <c r="S54">
         <v>1.6E-2</v>
       </c>
-      <c r="T52" t="s">
+      <c r="T54" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>5</v>
-      </c>
-      <c r="B53" s="11">
-        <f>(B3/B5)*B21</f>
-        <v>0.5733397037744864</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>51</v>
       </c>
-      <c r="B54" s="10">
-        <f>(1/(1-B53))*SQRT(B23*10^-6/B51)</f>
+      <c r="B56" s="35">
+        <f>(1/(1-B18))*SQRT(B25*10^-6/B53)</f>
         <v>2296.9866312323384</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C56" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>65</v>
-      </c>
-      <c r="B56" s="6">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="32">
         <f>(1.2/(B9/B10))*22.1*10^6</f>
         <v>530.40000000000009</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C58" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A58" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="B58" s="31"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>75</v>
-      </c>
-      <c r="B59" s="6">
-        <f>B6*(1/B21)*2</f>
-        <v>229.32</v>
-      </c>
-      <c r="C59" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A59" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>67</v>
-      </c>
-      <c r="B60" s="14">
-        <v>4.5</v>
+        <v>102</v>
+      </c>
+      <c r="B60" s="18">
+        <f>0.5*B23*(B3/(B25*10^-6))*(1/B9)*2</f>
+        <v>0.33812341504649202</v>
       </c>
       <c r="C60" t="s">
         <v>20</v>
       </c>
-      <c r="D60" t="s">
+      <c r="F60" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="G60" s="30"/>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>103</v>
+      </c>
+      <c r="B61" s="18">
+        <f>B78</f>
+        <v>956.13236267372599</v>
+      </c>
+      <c r="D61" t="s">
+        <v>104</v>
+      </c>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>162</v>
+      </c>
+      <c r="B62" s="18">
+        <f>(1/B23)*(B7+(B37/2))</f>
+        <v>8.050918367346938</v>
+      </c>
+      <c r="C62" t="s">
+        <v>20</v>
+      </c>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B63" s="18"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="18">
+        <f>1*1.5</f>
+        <v>1.5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>37</v>
+      </c>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B65" s="18"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>107</v>
+      </c>
+      <c r="B66" s="4">
+        <f>B60^2*B64</f>
+        <v>0.17149116570405346</v>
+      </c>
+      <c r="C66" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>164</v>
+      </c>
+      <c r="B67" s="4">
+        <v>2</v>
+      </c>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>163</v>
+      </c>
+      <c r="B68" s="4">
+        <f>B66*B67</f>
+        <v>0.34298233140810691</v>
+      </c>
+      <c r="C68" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B69" s="4"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
+      <c r="R69" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>68</v>
-      </c>
-      <c r="B62" s="23">
-        <f>D62*10^-3</f>
+      <c r="S69">
+        <v>31.3</v>
+      </c>
+      <c r="T69" t="s">
+        <v>20</v>
+      </c>
+      <c r="U69" t="s">
+        <v>87</v>
+      </c>
+      <c r="V69" t="s">
+        <v>81</v>
+      </c>
+      <c r="W69" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B70" s="17"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="F70" s="28"/>
+      <c r="G70" s="23"/>
+      <c r="R70" t="s">
+        <v>83</v>
+      </c>
+      <c r="S70">
+        <v>2.84</v>
+      </c>
+      <c r="T70" t="s">
+        <v>20</v>
+      </c>
+      <c r="V70" t="s">
+        <v>89</v>
+      </c>
+      <c r="W70">
+        <v>39.85</v>
+      </c>
+      <c r="X70" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>144</v>
+      </c>
+      <c r="B71" s="17">
+        <f>(B14-B13)/B68</f>
+        <v>218.67015624999993</v>
+      </c>
+      <c r="C71" t="s">
+        <v>146</v>
+      </c>
+      <c r="D71" s="4"/>
+      <c r="E71" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="F71" t="s">
+        <v>154</v>
+      </c>
+      <c r="G71" s="23"/>
+      <c r="R71" t="s">
+        <v>84</v>
+      </c>
+      <c r="S71">
+        <v>1001</v>
+      </c>
+      <c r="T71" t="s">
+        <v>18</v>
+      </c>
+      <c r="V71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>147</v>
+      </c>
+      <c r="B72" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="C72" t="s">
+        <v>146</v>
+      </c>
+      <c r="D72" s="4"/>
+      <c r="E72">
+        <f>E71*B74</f>
+        <v>21.91</v>
+      </c>
+      <c r="F72" t="s">
+        <v>155</v>
+      </c>
+      <c r="G72" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="R72" t="s">
+        <v>85</v>
+      </c>
+      <c r="S72">
+        <v>953</v>
+      </c>
+      <c r="T72" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>148</v>
+      </c>
+      <c r="B73" s="20">
+        <v>62</v>
+      </c>
+      <c r="C73" t="s">
+        <v>146</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E73">
+        <f>1/E72</f>
+        <v>4.5641259698767686E-2</v>
+      </c>
+      <c r="F73" t="s">
+        <v>146</v>
+      </c>
+      <c r="G73" s="23"/>
+      <c r="R73" t="s">
+        <v>86</v>
+      </c>
+      <c r="S73" s="4">
+        <f>(S72/S71)*100</f>
+        <v>95.204795204795204</v>
+      </c>
+      <c r="T73" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>165</v>
+      </c>
+      <c r="B74" s="17">
+        <f>B72+B73</f>
+        <v>62.6</v>
+      </c>
+      <c r="D74" s="4"/>
+      <c r="G74" s="23"/>
+      <c r="R74" t="s">
+        <v>91</v>
+      </c>
+      <c r="S74">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="T74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>166</v>
+      </c>
+      <c r="B75" s="17">
+        <f>(B68*B74)+B13</f>
+        <v>71.470693946147492</v>
+      </c>
+      <c r="C75" t="s">
+        <v>143</v>
+      </c>
+      <c r="D75" s="4"/>
+      <c r="G75" s="23"/>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B76" s="17"/>
+      <c r="D76" s="4"/>
+      <c r="G76" s="23"/>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A77" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="27"/>
+      <c r="I77" s="27"/>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>105</v>
+      </c>
+      <c r="B78" s="4">
+        <f>((B6^2)/(B6-(B3*B23)))*1.2</f>
+        <v>956.13236267372599</v>
+      </c>
+      <c r="C78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>106</v>
+      </c>
+      <c r="B79" s="4">
+        <f>SQRT(B84/B80)</f>
+        <v>5.5123576586177476</v>
+      </c>
+      <c r="C79" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>63</v>
+      </c>
+      <c r="B80">
+        <f>0.15*1.5</f>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="C80" t="s">
+        <v>37</v>
+      </c>
+      <c r="F80" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="G80" s="30"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>109</v>
+      </c>
+      <c r="B81" s="1">
+        <f>D81*10^-9</f>
+        <v>3.0000000000000004E-8</v>
+      </c>
+      <c r="C81" t="s">
+        <v>112</v>
+      </c>
+      <c r="D81" s="12">
+        <v>30</v>
+      </c>
+      <c r="E81" t="s">
+        <v>111</v>
+      </c>
+      <c r="F81" s="30"/>
+      <c r="G81" s="30"/>
+      <c r="H81" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>115</v>
+      </c>
+      <c r="B82" s="1">
+        <f>D82*10^-9</f>
+        <v>6.0000000000000008E-9</v>
+      </c>
+      <c r="C82" t="s">
+        <v>112</v>
+      </c>
+      <c r="D82">
+        <v>6</v>
+      </c>
+      <c r="E82" t="s">
+        <v>111</v>
+      </c>
+      <c r="F82" s="30"/>
+      <c r="G82" s="30"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>107</v>
+      </c>
+      <c r="B84" s="4">
+        <f>B23*(B3/B5)*((1/B23)*B7)^2*B80</f>
+        <v>6.8368695652173894</v>
+      </c>
+      <c r="C84" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>108</v>
+      </c>
+      <c r="B85" s="4">
+        <f>B81*B11*B9</f>
+        <v>3.0000000000000002E-2</v>
+      </c>
+      <c r="C85" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>113</v>
+      </c>
+      <c r="B86" s="4">
+        <f>0.5*B7*D23*(B6/(1-B18))*(B82/2)*B9</f>
+        <v>1.6124303247480403</v>
+      </c>
+      <c r="C86" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>114</v>
+      </c>
+      <c r="B87" s="4">
+        <f>0.5*B7*D23*B78*(B82/2)*B9</f>
+        <v>1.0440965400397089</v>
+      </c>
+      <c r="C87" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>116</v>
+      </c>
+      <c r="B88" s="4">
+        <f>B84+B85+B86+B87</f>
+        <v>9.523396430005139</v>
+      </c>
+      <c r="C88" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B89" s="4"/>
+      <c r="E89" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="F89" s="25"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B90" s="17"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="F90" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>144</v>
+      </c>
+      <c r="B91" s="17">
+        <f>(B14-B13)/B88</f>
+        <v>7.8753415917559915</v>
+      </c>
+      <c r="C91" t="s">
+        <v>146</v>
+      </c>
+      <c r="D91" s="4"/>
+      <c r="E91">
+        <f>E90*B94</f>
+        <v>112.84</v>
+      </c>
+      <c r="F91" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>147</v>
+      </c>
+      <c r="B92" s="20">
+        <v>0.9</v>
+      </c>
+      <c r="C92" t="s">
+        <v>146</v>
+      </c>
+      <c r="D92" s="4"/>
+      <c r="E92">
+        <f>1/E91</f>
+        <v>8.8621056362991838E-3</v>
+      </c>
+      <c r="F92" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B93" s="20"/>
+      <c r="D93" s="4"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>149</v>
+      </c>
+      <c r="B94" s="17">
+        <f>15.5*20.8</f>
+        <v>322.40000000000003</v>
+      </c>
+      <c r="C94" t="s">
+        <v>150</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>148</v>
+      </c>
+      <c r="B95" s="17">
+        <f>E92</f>
+        <v>8.8621056362991838E-3</v>
+      </c>
+      <c r="C95" t="s">
+        <v>146</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>152</v>
+      </c>
+      <c r="B96" s="17"/>
+      <c r="D96" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B97" s="17"/>
+      <c r="D97" s="4"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>158</v>
+      </c>
+      <c r="B98">
+        <v>3.9</v>
+      </c>
+      <c r="C98" t="s">
+        <v>146</v>
+      </c>
+      <c r="D98" s="4"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>186</v>
+      </c>
+      <c r="B99" s="16">
+        <f>B92+B95+B98</f>
+        <v>4.8088621056362992</v>
+      </c>
+      <c r="C99" t="s">
+        <v>146</v>
+      </c>
+      <c r="D99" s="4"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D100" s="4"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>166</v>
+      </c>
+      <c r="B101">
+        <f>B13+B88*B99</f>
+        <v>95.796700209203721</v>
+      </c>
+      <c r="C101" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A102" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B102" s="27"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="27"/>
+      <c r="E102" s="27"/>
+      <c r="F102" s="27"/>
+      <c r="G102" s="27"/>
+      <c r="H102" s="27"/>
+      <c r="I102" s="27"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>70</v>
+      </c>
+      <c r="B103" s="6">
+        <f>B6*(1/B23)*2</f>
+        <v>229.32</v>
+      </c>
+      <c r="C103" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>62</v>
+      </c>
+      <c r="B104" s="38">
+        <v>4.5</v>
+      </c>
+      <c r="C104" t="s">
+        <v>20</v>
+      </c>
+      <c r="D104" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B105" s="39"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>63</v>
+      </c>
+      <c r="B106" s="20">
+        <f>D106*10^-3</f>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C106" t="s">
         <v>37</v>
       </c>
-      <c r="D62" s="14">
+      <c r="D106" s="12">
         <f>5*1.6</f>
         <v>8</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E106" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>61</v>
+      </c>
+      <c r="B107" s="7">
+        <f>B104*B106</f>
+        <v>3.6000000000000004E-2</v>
+      </c>
+      <c r="C107" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="6">
+        <f>B107*10^3</f>
+        <v>36.000000000000007</v>
+      </c>
+      <c r="E107" t="s">
+        <v>64</v>
+      </c>
+      <c r="F107" t="s">
+        <v>72</v>
+      </c>
+      <c r="G107" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>76</v>
+      </c>
+      <c r="B108" s="6">
+        <f>D107*1.2</f>
+        <v>43.20000000000001</v>
+      </c>
+      <c r="C108" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G109" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="H109" s="30"/>
+      <c r="I109" s="30"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>66</v>
       </c>
-      <c r="B63" s="7">
-        <f>B60*B62</f>
-        <v>3.6000000000000004E-2</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="B110" s="12">
+        <v>2000</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>171</v>
+      </c>
+      <c r="G110" s="30"/>
+      <c r="H110" s="30"/>
+      <c r="I110" s="30"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>67</v>
+      </c>
+      <c r="B111" s="12">
+        <v>300</v>
+      </c>
+      <c r="C111" t="s">
         <v>9</v>
       </c>
-      <c r="D63" s="6">
-        <f>B63*10^3</f>
-        <v>36.000000000000007</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="G111" s="30"/>
+      <c r="H111" s="30"/>
+      <c r="I111" s="30"/>
+      <c r="J111" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>65</v>
+      </c>
+      <c r="B112" s="33">
+        <f>B106*SQRT(2*B110*10^-3*((1.3*B111-B3)/(1.3*B111*B36*10^-6)))</f>
+        <v>3.2749465225060894</v>
+      </c>
+      <c r="C112" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="40">
+        <f>B112*10^3</f>
+        <v>3274.9465225060894</v>
+      </c>
+      <c r="E112" t="s">
+        <v>64</v>
+      </c>
+      <c r="G112" s="30"/>
+      <c r="H112" s="30"/>
+      <c r="I112" s="30"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>78</v>
+      </c>
+      <c r="B113" s="33">
+        <f>B112/B106</f>
+        <v>409.36831531326118</v>
+      </c>
+      <c r="C113" t="s">
+        <v>20</v>
+      </c>
+      <c r="D113" s="12">
+        <v>60</v>
+      </c>
+      <c r="E113" t="s">
+        <v>20</v>
+      </c>
+      <c r="F113" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>69</v>
       </c>
-      <c r="F63" t="s">
-        <v>77</v>
-      </c>
-      <c r="G63" t="s">
+      <c r="B115" s="12">
+        <v>1000</v>
+      </c>
+      <c r="C115" t="s">
+        <v>37</v>
+      </c>
+      <c r="D115" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>73</v>
+      </c>
+      <c r="B116" s="31">
+        <f>((B115*40*10^-6)+66*10^-3)/D113</f>
+        <v>1.7666666666666668E-3</v>
+      </c>
+      <c r="C116" t="s">
+        <v>37</v>
+      </c>
+      <c r="D116" s="33">
+        <f>B116*10^3</f>
+        <v>1.7666666666666668</v>
+      </c>
+      <c r="E116" t="s">
+        <v>38</v>
+      </c>
+      <c r="F116" s="12">
+        <v>1.8</v>
+      </c>
+      <c r="G116" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>81</v>
-      </c>
-      <c r="B64" s="6">
-        <f>D63*1.2</f>
-        <v>43.20000000000001</v>
-      </c>
-      <c r="C64" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="G65" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="H65" s="33"/>
-      <c r="I65" s="33"/>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>71</v>
-      </c>
-      <c r="B66" s="14">
-        <v>2000</v>
-      </c>
-      <c r="C66" t="s">
-        <v>73</v>
-      </c>
-      <c r="D66" t="s">
-        <v>176</v>
-      </c>
-      <c r="G66" s="33"/>
-      <c r="H66" s="33"/>
-      <c r="I66" s="33"/>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>72</v>
-      </c>
-      <c r="B67" s="14">
-        <v>300</v>
-      </c>
-      <c r="C67" t="s">
-        <v>9</v>
-      </c>
-      <c r="G67" s="33"/>
-      <c r="H67" s="33"/>
-      <c r="I67" s="33"/>
-      <c r="J67" t="s">
-        <v>164</v>
-      </c>
-      <c r="R67" t="s">
-        <v>87</v>
-      </c>
-      <c r="S67">
-        <v>31.3</v>
-      </c>
-      <c r="T67" t="s">
+      <c r="H116" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D117" s="4"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>125</v>
+      </c>
+      <c r="B118" s="33">
+        <f>SQRT((1-B17)*(B7^2+(B37^2/12)))</f>
+        <v>35.634613352465081</v>
+      </c>
+      <c r="C118" t="s">
         <v>20</v>
       </c>
-      <c r="U67" t="s">
-        <v>92</v>
-      </c>
-      <c r="V67" t="s">
-        <v>86</v>
-      </c>
-      <c r="W67" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68" s="11">
-        <f>B62*SQRT(2*B66*10^-3*((1.3*B67-B3)/(1.3*B67*B34*10^-6)))</f>
-        <v>3.2749465225060894</v>
-      </c>
-      <c r="C68" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68">
-        <f>B68*10^3</f>
-        <v>3274.9465225060894</v>
-      </c>
-      <c r="E68" t="s">
-        <v>69</v>
-      </c>
-      <c r="G68" s="33"/>
-      <c r="H68" s="33"/>
-      <c r="I68" s="33"/>
-      <c r="R68" t="s">
-        <v>88</v>
-      </c>
-      <c r="S68">
-        <v>2.84</v>
-      </c>
-      <c r="T68" t="s">
-        <v>20</v>
-      </c>
-      <c r="V68" t="s">
-        <v>94</v>
-      </c>
-      <c r="W68">
-        <v>39.85</v>
-      </c>
-      <c r="X68" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>83</v>
-      </c>
-      <c r="B69" s="11">
-        <f>B68/B62</f>
-        <v>409.36831531326118</v>
-      </c>
-      <c r="C69" t="s">
-        <v>20</v>
-      </c>
-      <c r="D69">
-        <v>60</v>
-      </c>
-      <c r="E69" t="s">
-        <v>20</v>
-      </c>
-      <c r="F69" t="s">
-        <v>134</v>
-      </c>
-      <c r="R69" t="s">
-        <v>89</v>
-      </c>
-      <c r="S69">
-        <v>1001</v>
-      </c>
-      <c r="T69" t="s">
+      <c r="D118" s="4"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>109</v>
+      </c>
+      <c r="B119" s="21">
+        <f>D119*10^-9</f>
+        <v>3.4500000000000003E-7</v>
+      </c>
+      <c r="C119" t="s">
+        <v>112</v>
+      </c>
+      <c r="D119" s="19">
+        <v>345</v>
+      </c>
+      <c r="E119" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>127</v>
+      </c>
+      <c r="B120" s="17">
+        <f>(B118^2*B106)+(B11*B9*B119)</f>
+        <v>10.503605350237462</v>
+      </c>
+      <c r="C120" t="s">
         <v>18</v>
       </c>
-      <c r="V69" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="R70" t="s">
-        <v>90</v>
-      </c>
-      <c r="S70">
-        <v>953</v>
-      </c>
-      <c r="T70" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>74</v>
-      </c>
-      <c r="B71" s="14">
-        <v>1000</v>
-      </c>
-      <c r="C71" t="s">
-        <v>37</v>
-      </c>
-      <c r="D71" t="s">
-        <v>80</v>
-      </c>
-      <c r="R71" t="s">
-        <v>91</v>
-      </c>
-      <c r="S71" s="4">
-        <f>(S70/S69)*100</f>
-        <v>95.204795204795204</v>
-      </c>
-      <c r="T71" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>78</v>
-      </c>
-      <c r="B72" s="12">
-        <f>((B71*40*10^-6)+66*10^-3)/D69</f>
-        <v>1.7666666666666668E-3</v>
-      </c>
-      <c r="C72" t="s">
-        <v>37</v>
-      </c>
-      <c r="D72" s="11">
-        <f>B72*10^3</f>
-        <v>1.7666666666666668</v>
-      </c>
-      <c r="E72" t="s">
-        <v>38</v>
-      </c>
-      <c r="F72" s="14">
-        <v>1.8</v>
-      </c>
-      <c r="G72" t="s">
-        <v>84</v>
-      </c>
-      <c r="H72" t="s">
-        <v>85</v>
-      </c>
-      <c r="R72" t="s">
-        <v>96</v>
-      </c>
-      <c r="S72">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="T72" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="D73" s="4"/>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>130</v>
-      </c>
-      <c r="B74" s="21">
-        <f>SQRT((1-B50)*(B7^2+(B35^2/12)))</f>
-        <v>35.634613352465081</v>
-      </c>
-      <c r="C74" t="s">
-        <v>20</v>
-      </c>
-      <c r="D74" s="4"/>
-    </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>114</v>
-      </c>
-      <c r="B75" s="24">
-        <f>D75*10^-9</f>
-        <v>3.4500000000000003E-7</v>
-      </c>
-      <c r="C75" t="s">
-        <v>117</v>
-      </c>
-      <c r="D75" s="22">
-        <v>345</v>
-      </c>
-      <c r="E75" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>132</v>
-      </c>
-      <c r="B76" s="20">
-        <f>(B74^2*B62)+(B11*B9*B75)</f>
-        <v>10.503605350237462</v>
-      </c>
-      <c r="C76" t="s">
-        <v>18</v>
-      </c>
-      <c r="D76" s="4"/>
-    </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B77" s="20"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="F77" s="34"/>
-    </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+      <c r="D120" s="4"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B121" s="17"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="F121" s="28"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>144</v>
+      </c>
+      <c r="B122" s="17">
+        <f>(B14-B13)/B120</f>
+        <v>7.1404053655066564</v>
+      </c>
+      <c r="C122" t="s">
+        <v>146</v>
+      </c>
+      <c r="D122" s="4"/>
+      <c r="E122" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="F122" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>147</v>
+      </c>
+      <c r="B123" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="C123" t="s">
+        <v>146</v>
+      </c>
+      <c r="D123" s="4"/>
+      <c r="E123" s="15">
+        <f>E122*B125</f>
+        <v>177.20149999999998</v>
+      </c>
+      <c r="F123" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>148</v>
+      </c>
+      <c r="B124" s="20">
+        <v>0.15</v>
+      </c>
+      <c r="C124" t="s">
+        <v>146</v>
+      </c>
+      <c r="D124" s="4"/>
+      <c r="E124" s="15">
+        <f>1/E123</f>
+        <v>5.6432930872481329E-3</v>
+      </c>
+      <c r="F124" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
         <v>149</v>
       </c>
-      <c r="B78" s="20">
-        <f>(B14-B13)/B76</f>
-        <v>7.1404053655066564</v>
-      </c>
-      <c r="C78" t="s">
-        <v>151</v>
-      </c>
-      <c r="D78" s="4"/>
-      <c r="E78" s="14">
-        <v>0.35</v>
-      </c>
-      <c r="F78" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>152</v>
-      </c>
-      <c r="B79" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="C79" t="s">
-        <v>151</v>
-      </c>
-      <c r="D79" s="4"/>
-      <c r="E79">
-        <f>E78*B81</f>
-        <v>177.20149999999998</v>
-      </c>
-      <c r="F79" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>153</v>
-      </c>
-      <c r="B80" s="23">
-        <v>0.15</v>
-      </c>
-      <c r="C80" t="s">
-        <v>151</v>
-      </c>
-      <c r="D80" s="4"/>
-      <c r="E80">
-        <f>1/E79</f>
-        <v>5.6432930872481329E-3</v>
-      </c>
-      <c r="F80" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>154</v>
-      </c>
-      <c r="B81" s="20">
+      <c r="B125" s="17">
         <f>19.7*25.7</f>
         <v>506.28999999999996</v>
       </c>
-      <c r="C81" t="s">
-        <v>155</v>
-      </c>
-      <c r="D81" s="4"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>156</v>
-      </c>
-      <c r="B82" s="20">
-        <f>E80</f>
+      <c r="C125" t="s">
+        <v>150</v>
+      </c>
+      <c r="D125" s="4"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>151</v>
+      </c>
+      <c r="B126" s="17">
+        <f>E124</f>
         <v>5.6432930872481329E-3</v>
       </c>
-      <c r="C82" t="s">
-        <v>151</v>
-      </c>
-      <c r="D82" s="4"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>157</v>
-      </c>
-      <c r="B83" s="20">
-        <f>B78-B79-B80-B82</f>
+      <c r="C126" t="s">
+        <v>146</v>
+      </c>
+      <c r="D126" s="4"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>152</v>
+      </c>
+      <c r="B127" s="17">
+        <f>B122-B123-B124-B126</f>
         <v>6.8847620724194085</v>
       </c>
-      <c r="C83" t="s">
-        <v>151</v>
-      </c>
-      <c r="D83" s="4"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B84" s="20"/>
-      <c r="D84" s="4"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>172</v>
-      </c>
-      <c r="B85">
-        <v>4.7</v>
-      </c>
-      <c r="C85" t="s">
-        <v>151</v>
-      </c>
-      <c r="D85" s="4"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>170</v>
-      </c>
-      <c r="B86" s="19">
-        <f>B79+B80+B82+B85</f>
-        <v>4.955643293087248</v>
-      </c>
-      <c r="D86" s="4"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D87" s="4"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>171</v>
-      </c>
-      <c r="B88">
-        <f>B13+B76*B86</f>
-        <v>102.05212140713962</v>
-      </c>
-      <c r="C88" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="B89" s="31"/>
-      <c r="C89" s="31"/>
-      <c r="D89" s="31"/>
-      <c r="E89" s="31"/>
-      <c r="F89" s="31"/>
-      <c r="G89" s="31"/>
-      <c r="H89" s="31"/>
-      <c r="I89" s="31"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>107</v>
-      </c>
-      <c r="B90" s="21">
-        <f>0.5*B21*(B3/(B23*10^-6))*(1/B9)*2</f>
-        <v>0.33812341504649202</v>
-      </c>
-      <c r="C90" t="s">
-        <v>20</v>
-      </c>
-      <c r="F90" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="G90" s="33"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>108</v>
-      </c>
-      <c r="B91" s="21">
-        <f>B108</f>
-        <v>956.13236267372599</v>
-      </c>
-      <c r="D91" t="s">
-        <v>109</v>
-      </c>
-      <c r="F91" s="33"/>
-      <c r="G91" s="33"/>
-      <c r="H91" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>167</v>
-      </c>
-      <c r="B92" s="21">
-        <f>(1/B21)*(B7+(B35/2))</f>
-        <v>8.050918367346938</v>
-      </c>
-      <c r="C92" t="s">
-        <v>20</v>
-      </c>
-      <c r="F92" s="33"/>
-      <c r="G92" s="33"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B93" s="21"/>
-      <c r="F93" s="26"/>
-      <c r="G93" s="26"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>68</v>
-      </c>
-      <c r="B94" s="21">
-        <f>1*1.5</f>
-        <v>1.5</v>
-      </c>
-      <c r="C94" t="s">
-        <v>37</v>
-      </c>
-      <c r="F94" s="26"/>
-      <c r="G94" s="26"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B95" s="21"/>
-      <c r="F95" s="26"/>
-      <c r="G95" s="26"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>112</v>
-      </c>
-      <c r="B96" s="4">
-        <f>B90^2*B94</f>
-        <v>0.17149116570405346</v>
-      </c>
-      <c r="C96" t="s">
-        <v>18</v>
-      </c>
-      <c r="F96" s="26"/>
-      <c r="G96" s="26"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>169</v>
-      </c>
-      <c r="B97" s="4">
-        <v>2</v>
-      </c>
-      <c r="F97" s="26"/>
-      <c r="G97" s="26"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>168</v>
-      </c>
-      <c r="B98" s="4">
-        <f>B96*B97</f>
-        <v>0.34298233140810691</v>
-      </c>
-      <c r="C98" t="s">
-        <v>18</v>
-      </c>
-      <c r="F98" s="26"/>
-      <c r="G98" s="26"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B99" s="4"/>
-      <c r="F99" s="26"/>
-      <c r="G99" s="26"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B100" s="20"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="F100" s="34"/>
-      <c r="G100" s="26"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>149</v>
-      </c>
-      <c r="B101" s="20">
-        <f>(B14-B13)/B98</f>
-        <v>218.67015624999993</v>
-      </c>
-      <c r="C101" t="s">
-        <v>151</v>
-      </c>
-      <c r="D101" s="4"/>
-      <c r="E101" s="14">
-        <v>0.35</v>
-      </c>
-      <c r="F101" t="s">
-        <v>159</v>
-      </c>
-      <c r="G101" s="26"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>152</v>
-      </c>
-      <c r="B102" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="C102" t="s">
-        <v>151</v>
-      </c>
-      <c r="D102" s="4"/>
-      <c r="E102">
-        <f>E101*B104</f>
-        <v>21.91</v>
-      </c>
-      <c r="F102" t="s">
-        <v>160</v>
-      </c>
-      <c r="G102" s="26" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>153</v>
-      </c>
-      <c r="B103" s="23">
-        <v>62</v>
-      </c>
-      <c r="C103" t="s">
-        <v>151</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E103">
-        <f>1/E102</f>
-        <v>4.5641259698767686E-2</v>
-      </c>
-      <c r="F103" t="s">
-        <v>151</v>
-      </c>
-      <c r="G103" s="26"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>170</v>
-      </c>
-      <c r="B104" s="20">
-        <f>B102+B103</f>
-        <v>62.6</v>
-      </c>
-      <c r="D104" s="4"/>
-      <c r="G104" s="26"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>171</v>
-      </c>
-      <c r="B105" s="20">
-        <f>(B98*B104)+B13</f>
-        <v>71.470693946147492</v>
-      </c>
-      <c r="C105" t="s">
-        <v>148</v>
-      </c>
-      <c r="D105" s="4"/>
-      <c r="G105" s="26"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B106" s="20"/>
-      <c r="D106" s="4"/>
-      <c r="G106" s="26"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A107" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="B107" s="31"/>
-      <c r="C107" s="31"/>
-      <c r="D107" s="31"/>
-      <c r="E107" s="31"/>
-      <c r="F107" s="31"/>
-      <c r="G107" s="31"/>
-      <c r="H107" s="31"/>
-      <c r="I107" s="31"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>110</v>
-      </c>
-      <c r="B108" s="4">
-        <f>((B6^2)/(B6-(B3*B21)))*1.2</f>
-        <v>956.13236267372599</v>
-      </c>
-      <c r="C108" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>111</v>
-      </c>
-      <c r="B109" s="4">
-        <f>SQRT(B114/B110)</f>
-        <v>5.5123576586177476</v>
-      </c>
-      <c r="C109" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>68</v>
-      </c>
-      <c r="B110">
-        <f>0.15*1.5</f>
-        <v>0.22499999999999998</v>
-      </c>
-      <c r="C110" t="s">
-        <v>37</v>
-      </c>
-      <c r="F110" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="G110" s="33"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>114</v>
-      </c>
-      <c r="B111" s="1">
-        <f>D111*10^-9</f>
-        <v>3.0000000000000004E-8</v>
-      </c>
-      <c r="C111" t="s">
-        <v>117</v>
-      </c>
-      <c r="D111" s="14">
-        <v>30</v>
-      </c>
-      <c r="E111" t="s">
-        <v>116</v>
-      </c>
-      <c r="F111" s="33"/>
-      <c r="G111" s="33"/>
-      <c r="H111" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>120</v>
-      </c>
-      <c r="B112" s="1">
-        <f>D112*10^-9</f>
-        <v>6.0000000000000008E-9</v>
-      </c>
-      <c r="C112" t="s">
-        <v>117</v>
-      </c>
-      <c r="D112">
-        <v>6</v>
-      </c>
-      <c r="E112" t="s">
-        <v>116</v>
-      </c>
-      <c r="F112" s="33"/>
-      <c r="G112" s="33"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>112</v>
-      </c>
-      <c r="B114" s="4">
-        <f>B21*(B3/B5)*((1/B21)*B7)^2*B110</f>
-        <v>6.8368695652173894</v>
-      </c>
-      <c r="C114" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>113</v>
-      </c>
-      <c r="B115" s="4">
-        <f>B111*B11*B9</f>
-        <v>3.0000000000000002E-2</v>
-      </c>
-      <c r="C115" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>118</v>
-      </c>
-      <c r="B116" s="4">
-        <f>0.5*B7*D21*(B6/(1-B53))*(B112/2)*B9</f>
-        <v>1.6124303247480403</v>
-      </c>
-      <c r="C116" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>119</v>
-      </c>
-      <c r="B117" s="4">
-        <f>0.5*B7*D21*B108*(B112/2)*B9</f>
-        <v>1.0440965400397089</v>
-      </c>
-      <c r="C117" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>121</v>
-      </c>
-      <c r="B118" s="4">
-        <f>B114+B115+B116+B117</f>
-        <v>9.523396430005139</v>
-      </c>
-      <c r="C118" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B119" s="4"/>
-      <c r="E119" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="F119" s="28"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B120" s="20"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="14">
-        <v>0.35</v>
-      </c>
-      <c r="F120" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>149</v>
-      </c>
-      <c r="B121" s="20">
-        <f>(B14-B13)/B118</f>
-        <v>7.8753415917559915</v>
-      </c>
-      <c r="C121" t="s">
-        <v>151</v>
-      </c>
-      <c r="D121" s="4"/>
-      <c r="E121">
-        <f>E120*B124</f>
-        <v>112.84</v>
-      </c>
-      <c r="F121" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>152</v>
-      </c>
-      <c r="B122" s="23">
-        <v>0.9</v>
-      </c>
-      <c r="C122" t="s">
-        <v>151</v>
-      </c>
-      <c r="D122" s="4"/>
-      <c r="E122">
-        <f>1/E121</f>
-        <v>8.8621056362991838E-3</v>
-      </c>
-      <c r="F122" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B123" s="23"/>
-      <c r="D123" s="4"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>154</v>
-      </c>
-      <c r="B124" s="20">
-        <f>15.5*20.8</f>
-        <v>322.40000000000003</v>
-      </c>
-      <c r="C124" t="s">
-        <v>155</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>153</v>
-      </c>
-      <c r="B125" s="20">
-        <f>E122</f>
-        <v>8.8621056362991838E-3</v>
-      </c>
-      <c r="C125" t="s">
-        <v>151</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>157</v>
-      </c>
-      <c r="B126" s="20"/>
-      <c r="D126" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B127" s="20"/>
+      <c r="C127" t="s">
+        <v>146</v>
+      </c>
       <c r="D127" s="4"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>163</v>
-      </c>
-      <c r="B128">
-        <v>3.9</v>
-      </c>
-      <c r="C128" t="s">
-        <v>151</v>
-      </c>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B128" s="17"/>
       <c r="D128" s="4"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>192</v>
-      </c>
-      <c r="B129" s="19">
-        <f>B122+B125+B128</f>
-        <v>4.8088621056362992</v>
+        <v>167</v>
+      </c>
+      <c r="B129" s="12">
+        <v>4.7</v>
       </c>
       <c r="C129" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D129" s="4"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>165</v>
+      </c>
+      <c r="B130" s="17">
+        <f>B123+B124+B126+B129</f>
+        <v>4.955643293087248</v>
+      </c>
       <c r="D130" s="4"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>171</v>
-      </c>
-      <c r="B131">
-        <f>B13+B118*B129</f>
-        <v>95.796700209203721</v>
-      </c>
-      <c r="C131" t="s">
-        <v>148</v>
-      </c>
+      <c r="D131" s="4"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A132" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="B132" s="31"/>
-      <c r="C132" s="31"/>
-      <c r="D132" s="31"/>
-      <c r="E132" s="31"/>
-      <c r="F132" s="31"/>
-      <c r="G132" s="31"/>
-      <c r="H132" s="31"/>
-      <c r="I132" s="31"/>
+      <c r="A132" t="s">
+        <v>166</v>
+      </c>
+      <c r="B132" s="32">
+        <f>B13+B120*B130</f>
+        <v>102.05212140713962</v>
+      </c>
+      <c r="C132" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>127</v>
-      </c>
-      <c r="B133" s="4">
-        <f>(B3/(1-(B3/(B5*D21))))*1.2</f>
-        <v>67.501007838745792</v>
-      </c>
-      <c r="C133" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" t="s">
-        <v>129</v>
-      </c>
+      <c r="A133" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="B133" s="27"/>
+      <c r="C133" s="27"/>
+      <c r="D133" s="27"/>
+      <c r="E133" s="27"/>
+      <c r="F133" s="27"/>
+      <c r="G133" s="27"/>
+      <c r="H133" s="27"/>
+      <c r="I133" s="27"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B134" s="4">
-        <f>(B3/(B9*2*SQRT(B23*10^-6*B51)))</f>
-        <v>30.154861431004125</v>
+        <f>(B3/(1-(B3/(B5*D23))))*1.2</f>
+        <v>67.501007838745792</v>
       </c>
       <c r="C134" t="s">
         <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>130</v>
-      </c>
-      <c r="B135">
-        <f>SQRT(B53*(B7^2+(B35^2/12)))</f>
+        <v>122</v>
+      </c>
+      <c r="B135" s="4">
+        <f>(B3/(B9*2*SQRT(B25*10^-6*B53)))</f>
+        <v>30.154861431004125</v>
+      </c>
+      <c r="C135" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>125</v>
+      </c>
+      <c r="B136">
+        <f>SQRT(B18*(B7^2+(B37^2/12)))</f>
         <v>30.344233465774721</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C136" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F136" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="G136" s="33"/>
-    </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>68</v>
-      </c>
-      <c r="B137" s="19">
-        <f>D137*10^-3</f>
+      <c r="F137" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="G137" s="30"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>63</v>
+      </c>
+      <c r="B138" s="16">
+        <f>D138*10^-3</f>
         <v>2.0400000000000001E-3</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C138" t="s">
         <v>37</v>
       </c>
-      <c r="D137">
+      <c r="D138">
         <f>1.7*1.2</f>
         <v>2.04</v>
       </c>
-      <c r="E137" t="s">
+      <c r="E138" t="s">
         <v>38</v>
       </c>
-      <c r="F137" s="33"/>
-      <c r="G137" s="33"/>
-      <c r="H137" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>114</v>
-      </c>
-      <c r="B138" s="1">
-        <f>D138*10^-9</f>
+      <c r="F138" s="30"/>
+      <c r="G138" s="30"/>
+      <c r="H138" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>109</v>
+      </c>
+      <c r="B139" s="1">
+        <f>D139*10^-9</f>
         <v>1.24E-7</v>
       </c>
-      <c r="C138" t="s">
-        <v>117</v>
-      </c>
-      <c r="D138">
+      <c r="C139" t="s">
+        <v>112</v>
+      </c>
+      <c r="D139">
         <v>124</v>
       </c>
-      <c r="E138" t="s">
-        <v>116</v>
-      </c>
-      <c r="F138" s="33"/>
-      <c r="G138" s="33"/>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>131</v>
-      </c>
-      <c r="B140" s="27">
-        <f>(B135^2*B137)+(B11*B138*B9)</f>
+      <c r="E139" t="s">
+        <v>111</v>
+      </c>
+      <c r="F139" s="30"/>
+      <c r="G139" s="30"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>126</v>
+      </c>
+      <c r="B141" s="24">
+        <f>(B136^2*B138)+(B11*B139*B9)</f>
         <v>2.0023759094359028</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C141" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B141" s="4"/>
-    </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B142" s="20"/>
-      <c r="D142" s="4"/>
-      <c r="E142" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="F142" s="34"/>
+      <c r="B142" s="4"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>149</v>
-      </c>
-      <c r="B143" s="20">
-        <f>(B14-B13)/B140</f>
-        <v>37.455504556648677</v>
-      </c>
-      <c r="C143" t="s">
-        <v>151</v>
-      </c>
+      <c r="B143" s="17"/>
       <c r="D143" s="4"/>
-      <c r="E143" s="14">
-        <v>0.35</v>
-      </c>
-      <c r="F143" t="s">
-        <v>159</v>
-      </c>
+      <c r="E143" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="F143" s="28"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>152</v>
-      </c>
-      <c r="B144" s="23">
+        <v>144</v>
+      </c>
+      <c r="B144" s="17">
+        <f>(B14-B13)/B141</f>
+        <v>37.455504556648677</v>
+      </c>
+      <c r="C144" t="s">
+        <v>146</v>
+      </c>
+      <c r="D144" s="4"/>
+      <c r="E144" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="F144" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>147</v>
+      </c>
+      <c r="B145" s="20">
         <v>0.6</v>
       </c>
-      <c r="C144" t="s">
-        <v>151</v>
-      </c>
-      <c r="D144" s="4"/>
-      <c r="E144">
-        <f>E143*B146</f>
-        <v>59.005099999999999</v>
-      </c>
-      <c r="F144" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B145" s="23"/>
+      <c r="C145" t="s">
+        <v>146</v>
+      </c>
       <c r="D145" s="4"/>
       <c r="E145">
-        <f>1/E144</f>
+        <f>E144*B147</f>
+        <v>59.005099999999999</v>
+      </c>
+      <c r="F145" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B146" s="20"/>
+      <c r="D146" s="4"/>
+      <c r="E146">
+        <f>1/E145</f>
         <v>1.6947687572769134E-2</v>
       </c>
-      <c r="F145" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>154</v>
-      </c>
-      <c r="B146" s="20">
+      <c r="F146" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>149</v>
+      </c>
+      <c r="B147" s="17">
         <f>10.67*15.8</f>
         <v>168.58600000000001</v>
       </c>
-      <c r="C146" t="s">
-        <v>155</v>
-      </c>
-      <c r="D146" s="4"/>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>153</v>
-      </c>
-      <c r="B147" s="20">
-        <f>E145</f>
-        <v>1.6947687572769134E-2</v>
-      </c>
       <c r="C147" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D147" s="4"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>157</v>
-      </c>
-      <c r="B148" s="20">
-        <f>B143-B144-B145-B147</f>
+        <v>148</v>
+      </c>
+      <c r="B148" s="17">
+        <f>E146</f>
+        <v>1.6947687572769134E-2</v>
+      </c>
+      <c r="C148" t="s">
+        <v>146</v>
+      </c>
+      <c r="D148" s="4"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>152</v>
+      </c>
+      <c r="B149" s="17">
+        <f>B144-B145-B146-B148</f>
         <v>36.838556869075909</v>
       </c>
-      <c r="C148" t="s">
-        <v>151</v>
-      </c>
-      <c r="D148" s="4"/>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B149" s="20"/>
+      <c r="C149" t="s">
+        <v>146</v>
+      </c>
       <c r="D149" s="4"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>166</v>
-      </c>
-      <c r="B150">
-        <v>12</v>
-      </c>
-      <c r="C150" t="s">
-        <v>151</v>
-      </c>
+      <c r="B150" s="17"/>
       <c r="D150" s="4"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>170</v>
-      </c>
-      <c r="B151" s="19">
-        <f>B144+B145+B147+B150</f>
+        <v>161</v>
+      </c>
+      <c r="B151">
+        <v>12</v>
+      </c>
+      <c r="C151" t="s">
+        <v>146</v>
+      </c>
+      <c r="D151" s="4"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>165</v>
+      </c>
+      <c r="B152" s="16">
+        <f>B145+B146+B148+B151</f>
         <v>12.616947687572768</v>
       </c>
-      <c r="C151" t="s">
-        <v>151</v>
-      </c>
-      <c r="D151" s="4"/>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C152" t="s">
+        <v>146</v>
+      </c>
       <c r="D152" s="4"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>171</v>
-      </c>
-      <c r="B153">
-        <f>B13+B140*B151</f>
+      <c r="D153" s="4"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>166</v>
+      </c>
+      <c r="B154">
+        <f>B13+B141*B152</f>
         <v>75.263872100208729</v>
       </c>
-      <c r="C153" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A154" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="B154" s="31"/>
-      <c r="C154" s="31"/>
-      <c r="D154" s="31"/>
-      <c r="E154" s="31"/>
-      <c r="F154" s="31"/>
-      <c r="G154" s="31"/>
-      <c r="H154" s="31"/>
-      <c r="I154" s="31"/>
+      <c r="C154" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>137</v>
-      </c>
+      <c r="A155" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="B155" s="27"/>
+      <c r="C155" s="27"/>
+      <c r="D155" s="27"/>
+      <c r="E155" s="27"/>
+      <c r="F155" s="27"/>
+      <c r="G155" s="27"/>
+      <c r="H155" s="27"/>
+      <c r="I155" s="27"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>143</v>
-      </c>
-      <c r="B156" t="s">
-        <v>138</v>
-      </c>
-      <c r="C156" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
+        <v>138</v>
+      </c>
+      <c r="B157" t="s">
+        <v>133</v>
+      </c>
+      <c r="C157" t="s">
         <v>139</v>
-      </c>
-      <c r="B157">
-        <v>15</v>
-      </c>
-      <c r="C157">
-        <v>6.25</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>142</v>
-      </c>
-      <c r="B158" t="s">
-        <v>140</v>
-      </c>
-      <c r="C158" t="s">
-        <v>145</v>
+        <v>134</v>
+      </c>
+      <c r="B158">
+        <v>15</v>
+      </c>
+      <c r="C158">
+        <v>6.25</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>141</v>
-      </c>
-      <c r="B159">
+        <v>137</v>
+      </c>
+      <c r="B159" t="s">
+        <v>135</v>
+      </c>
+      <c r="C159" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>136</v>
+      </c>
+      <c r="B160">
         <v>800</v>
       </c>
-      <c r="C159">
+      <c r="C160">
         <v>1000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A154:I154"/>
-    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="G109:I112"/>
+    <mergeCell ref="A133:I133"/>
+    <mergeCell ref="F137:G139"/>
+    <mergeCell ref="A59:I59"/>
+    <mergeCell ref="A77:I77"/>
+    <mergeCell ref="F80:G82"/>
+    <mergeCell ref="F60:G62"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="A155:I155"/>
+    <mergeCell ref="A51:I51"/>
     <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="A58:I58"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E142:F142"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="G65:I68"/>
-    <mergeCell ref="A132:I132"/>
-    <mergeCell ref="F136:G138"/>
-    <mergeCell ref="A89:I89"/>
-    <mergeCell ref="A107:I107"/>
-    <mergeCell ref="F110:G112"/>
-    <mergeCell ref="F90:G92"/>
-    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A102:I102"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="E143:F143"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I34" r:id="rId1" display="https://www.coilcraft.com/en-us/products/power/shielded-inductors/high-current-flat-wire/agp-ver/agm2222/?skuId=30439" xr:uid="{65A06BCB-7F4F-4354-B81C-D2D05E16C3B9}"/>
+    <hyperlink ref="I36" r:id="rId1" display="https://www.coilcraft.com/en-us/products/power/shielded-inductors/high-current-flat-wire/agp-ver/agm2222/?skuId=30439" xr:uid="{65A06BCB-7F4F-4354-B81C-D2D05E16C3B9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/latex/calc/DC_Converter_Calc.xlsx
+++ b/latex/calc/DC_Converter_Calc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Privat\Git\Projektarbeit-Hochvolt-Elektrik-Komponenten-FSE-Fahrzeug\latex\calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1604778-EE36-4885-B8AC-0D54F2F624FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121AB83E-CB32-4D16-B942-B3D7EF087127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -620,7 +620,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.000%"/>
-    <numFmt numFmtId="173" formatCode="0.00000"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -716,7 +716,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -748,10 +748,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -760,16 +766,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1881,8 +1880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E153" sqref="E153"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1895,17 +1894,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1939,7 +1938,7 @@
       <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="28" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2042,17 +2041,17 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -2102,14 +2101,14 @@
       <c r="A21" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="33">
+      <c r="B21" s="29">
         <f>(B5/B3)*B16</f>
         <v>5.75</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="33">
+      <c r="D21" s="29">
         <f>(B5/B3)*D16</f>
         <v>6.708333333333333</v>
       </c>
@@ -2250,17 +2249,17 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -2280,7 +2279,7 @@
       <c r="A33" t="s">
         <v>173</v>
       </c>
-      <c r="B33" s="34">
+      <c r="B33" s="30">
         <f>B32/B7</f>
         <v>0.1</v>
       </c>
@@ -2318,7 +2317,7 @@
       <c r="C35" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="33">
+      <c r="D35" s="29">
         <f>B35*10^6</f>
         <v>47.441130298273158</v>
       </c>
@@ -2343,7 +2342,7 @@
         <v>21</v>
       </c>
       <c r="B36" s="12">
-        <v>22.4</v>
+        <v>11.2</v>
       </c>
       <c r="C36" t="s">
         <v>13</v>
@@ -2366,9 +2365,9 @@
       <c r="A37" t="s">
         <v>188</v>
       </c>
-      <c r="B37" s="32">
+      <c r="B37" s="28">
         <f>B3/(B36*10^-6*B9)*(1-(B3/B6)*B23)</f>
-        <v>8.4716304104059219</v>
+        <v>16.943260820811844</v>
       </c>
       <c r="C37" t="s">
         <v>20</v>
@@ -2429,14 +2428,14 @@
       </c>
       <c r="B42" s="8">
         <f>B37/(8*B9*(D40-B32*B41))</f>
-        <v>4.5333630246423112E-5</v>
+        <v>9.0667260492846224E-5</v>
       </c>
       <c r="C42" t="s">
         <v>48</v>
       </c>
-      <c r="D42" s="33">
+      <c r="D42" s="29">
         <f>B42*10^6</f>
-        <v>45.333630246423112</v>
+        <v>90.667260492846225</v>
       </c>
       <c r="E42" t="s">
         <v>57</v>
@@ -2453,7 +2452,7 @@
       <c r="C44" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="33">
+      <c r="D44" s="29">
         <f>B44*10^3</f>
         <v>5.0718512256973787</v>
       </c>
@@ -2483,7 +2482,7 @@
       <c r="A47" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="35">
+      <c r="B47" s="31">
         <f>(D46*((1/((B5/1.25)-1))+1))/(B6/1.25)</f>
         <v>1994.9692080839623</v>
       </c>
@@ -2495,7 +2494,7 @@
       <c r="A48" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="35">
+      <c r="B48" s="31">
         <f>B47*((B6/1.25)-1)-D46</f>
         <v>3469.5116662330693</v>
       </c>
@@ -2547,14 +2546,14 @@
       <c r="A50" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="36">
+      <c r="B50" s="32">
         <f>(D16/(0.725*((B9/1000)/300)*(1.25/B49)))*51.1*10^3</f>
         <v>148013.79310345076</v>
       </c>
       <c r="C50" t="s">
         <v>46</v>
       </c>
-      <c r="D50" s="35">
+      <c r="D50" s="31">
         <f>B50*10^-3</f>
         <v>148.01379310345078</v>
       </c>
@@ -2582,17 +2581,17 @@
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A51" s="27" t="s">
+      <c r="A51" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
       <c r="R51" t="s">
         <v>84</v>
       </c>
@@ -2638,7 +2637,7 @@
       <c r="C53" t="s">
         <v>48</v>
       </c>
-      <c r="D53" s="37">
+      <c r="D53" s="33">
         <f>B53*10^9</f>
         <v>4.0605345564331667</v>
       </c>
@@ -2668,7 +2667,7 @@
       <c r="C54" t="s">
         <v>48</v>
       </c>
-      <c r="D54" s="37">
+      <c r="D54" s="33">
         <f>B54*10^9</f>
         <v>24.363207338599</v>
       </c>
@@ -2689,7 +2688,7 @@
       <c r="A56" t="s">
         <v>51</v>
       </c>
-      <c r="B56" s="35">
+      <c r="B56" s="31">
         <f>(1/(1-B18))*SQRT(B25*10^-6/B53)</f>
         <v>2296.9866312323384</v>
       </c>
@@ -2701,7 +2700,7 @@
       <c r="A58" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="32">
+      <c r="B58" s="28">
         <f>(1.2/(B9/B10))*22.1*10^6</f>
         <v>530.40000000000009</v>
       </c>
@@ -2710,17 +2709,17 @@
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A59" s="27" t="s">
+      <c r="A59" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="27"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
@@ -2733,10 +2732,10 @@
       <c r="C60" t="s">
         <v>20</v>
       </c>
-      <c r="F60" s="30" t="s">
+      <c r="F60" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="G60" s="30"/>
+      <c r="G60" s="38"/>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
@@ -2749,8 +2748,8 @@
       <c r="D61" t="s">
         <v>104</v>
       </c>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
       <c r="H61" t="s">
         <v>160</v>
       </c>
@@ -2761,13 +2760,13 @@
       </c>
       <c r="B62" s="18">
         <f>(1/B23)*(B7+(B37/2))</f>
-        <v>8.050918367346938</v>
+        <v>8.8218367346938784</v>
       </c>
       <c r="C62" t="s">
         <v>20</v>
       </c>
-      <c r="F62" s="30"/>
-      <c r="G62" s="30"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="38"/>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B63" s="18"/>
@@ -2857,10 +2856,10 @@
     <row r="70" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B70" s="17"/>
       <c r="D70" s="4"/>
-      <c r="E70" s="28" t="s">
+      <c r="E70" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="F70" s="28"/>
+      <c r="F70" s="39"/>
       <c r="G70" s="23"/>
       <c r="R70" t="s">
         <v>83</v>
@@ -3016,17 +3015,17 @@
       <c r="G76" s="23"/>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A77" s="27" t="s">
+      <c r="A77" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="B77" s="27"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="27"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="27"/>
-      <c r="I77" s="27"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="36"/>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
@@ -3063,10 +3062,10 @@
       <c r="C80" t="s">
         <v>37</v>
       </c>
-      <c r="F80" s="30" t="s">
+      <c r="F80" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="G80" s="30"/>
+      <c r="G80" s="38"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
@@ -3085,8 +3084,8 @@
       <c r="E81" t="s">
         <v>111</v>
       </c>
-      <c r="F81" s="30"/>
-      <c r="G81" s="30"/>
+      <c r="F81" s="38"/>
+      <c r="G81" s="38"/>
       <c r="H81" t="s">
         <v>157</v>
       </c>
@@ -3108,8 +3107,8 @@
       <c r="E82" t="s">
         <v>111</v>
       </c>
-      <c r="F82" s="30"/>
-      <c r="G82" s="30"/>
+      <c r="F82" s="38"/>
+      <c r="G82" s="38"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
@@ -3315,17 +3314,17 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A102" s="27" t="s">
+      <c r="A102" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="B102" s="27"/>
-      <c r="C102" s="27"/>
-      <c r="D102" s="27"/>
-      <c r="E102" s="27"/>
-      <c r="F102" s="27"/>
-      <c r="G102" s="27"/>
-      <c r="H102" s="27"/>
-      <c r="I102" s="27"/>
+      <c r="B102" s="36"/>
+      <c r="C102" s="36"/>
+      <c r="D102" s="36"/>
+      <c r="E102" s="36"/>
+      <c r="F102" s="36"/>
+      <c r="G102" s="36"/>
+      <c r="H102" s="36"/>
+      <c r="I102" s="36"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
@@ -3346,7 +3345,7 @@
       <c r="A104" t="s">
         <v>62</v>
       </c>
-      <c r="B104" s="38">
+      <c r="B104" s="34">
         <v>4.5</v>
       </c>
       <c r="C104" t="s">
@@ -3355,9 +3354,6 @@
       <c r="D104" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B105" s="39"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
@@ -3416,11 +3412,11 @@
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G109" s="29" t="s">
+      <c r="G109" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="H109" s="30"/>
-      <c r="I109" s="30"/>
+      <c r="H109" s="38"/>
+      <c r="I109" s="38"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
@@ -3435,9 +3431,9 @@
       <c r="D110" t="s">
         <v>171</v>
       </c>
-      <c r="G110" s="30"/>
-      <c r="H110" s="30"/>
-      <c r="I110" s="30"/>
+      <c r="G110" s="38"/>
+      <c r="H110" s="38"/>
+      <c r="I110" s="38"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
@@ -3449,9 +3445,9 @@
       <c r="C111" t="s">
         <v>9</v>
       </c>
-      <c r="G111" s="30"/>
-      <c r="H111" s="30"/>
-      <c r="I111" s="30"/>
+      <c r="G111" s="38"/>
+      <c r="H111" s="38"/>
+      <c r="I111" s="38"/>
       <c r="J111" t="s">
         <v>159</v>
       </c>
@@ -3460,37 +3456,37 @@
       <c r="A112" t="s">
         <v>65</v>
       </c>
-      <c r="B112" s="33">
+      <c r="B112" s="29">
         <f>B106*SQRT(2*B110*10^-3*((1.3*B111-B3)/(1.3*B111*B36*10^-6)))</f>
-        <v>3.2749465225060894</v>
+        <v>4.6314737881747163</v>
       </c>
       <c r="C112" t="s">
         <v>9</v>
       </c>
-      <c r="D112" s="40">
+      <c r="D112" s="35">
         <f>B112*10^3</f>
-        <v>3274.9465225060894</v>
+        <v>4631.473788174716</v>
       </c>
       <c r="E112" t="s">
         <v>64</v>
       </c>
-      <c r="G112" s="30"/>
-      <c r="H112" s="30"/>
-      <c r="I112" s="30"/>
+      <c r="G112" s="38"/>
+      <c r="H112" s="38"/>
+      <c r="I112" s="38"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>78</v>
       </c>
-      <c r="B113" s="33">
+      <c r="B113" s="29">
         <f>B112/B106</f>
-        <v>409.36831531326118</v>
+        <v>578.9342235218395</v>
       </c>
       <c r="C113" t="s">
         <v>20</v>
       </c>
       <c r="D113" s="12">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="E113" t="s">
         <v>20</v>
@@ -3522,16 +3518,16 @@
       <c r="A116" t="s">
         <v>73</v>
       </c>
-      <c r="B116" s="31">
+      <c r="B116" s="27">
         <f>((B115*40*10^-6)+66*10^-3)/D113</f>
-        <v>1.7666666666666668E-3</v>
+        <v>8.8333333333333341E-4</v>
       </c>
       <c r="C116" t="s">
         <v>37</v>
       </c>
-      <c r="D116" s="33">
+      <c r="D116" s="29">
         <f>B116*10^3</f>
-        <v>1.7666666666666668</v>
+        <v>0.88333333333333341</v>
       </c>
       <c r="E116" t="s">
         <v>38</v>
@@ -3553,9 +3549,9 @@
       <c r="A118" t="s">
         <v>125</v>
       </c>
-      <c r="B118" s="33">
+      <c r="B118" s="29">
         <f>SQRT((1-B17)*(B7^2+(B37^2/12)))</f>
-        <v>35.634613352465081</v>
+        <v>35.833116683549576</v>
       </c>
       <c r="C118" t="s">
         <v>20</v>
@@ -3586,7 +3582,7 @@
       </c>
       <c r="B120" s="17">
         <f>(B118^2*B106)+(B11*B9*B119)</f>
-        <v>10.503605350237462</v>
+        <v>10.617098010055033</v>
       </c>
       <c r="C120" t="s">
         <v>18</v>
@@ -3596,10 +3592,10 @@
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B121" s="17"/>
       <c r="D121" s="4"/>
-      <c r="E121" s="28" t="s">
+      <c r="E121" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="F121" s="28"/>
+      <c r="F121" s="39"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
@@ -3607,7 +3603,7 @@
       </c>
       <c r="B122" s="17">
         <f>(B14-B13)/B120</f>
-        <v>7.1404053655066564</v>
+        <v>7.0640772016016502</v>
       </c>
       <c r="C122" t="s">
         <v>146</v>
@@ -3690,7 +3686,7 @@
       </c>
       <c r="B127" s="17">
         <f>B122-B123-B124-B126</f>
-        <v>6.8847620724194085</v>
+        <v>6.8084339085144023</v>
       </c>
       <c r="C127" t="s">
         <v>146</v>
@@ -3730,26 +3726,26 @@
       <c r="A132" t="s">
         <v>166</v>
       </c>
-      <c r="B132" s="32">
+      <c r="B132" s="28">
         <f>B13+B120*B130</f>
-        <v>102.05212140713962</v>
+        <v>102.61455054557919</v>
       </c>
       <c r="C132" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A133" s="27" t="s">
+      <c r="A133" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="B133" s="27"/>
-      <c r="C133" s="27"/>
-      <c r="D133" s="27"/>
-      <c r="E133" s="27"/>
-      <c r="F133" s="27"/>
-      <c r="G133" s="27"/>
-      <c r="H133" s="27"/>
-      <c r="I133" s="27"/>
+      <c r="B133" s="36"/>
+      <c r="C133" s="36"/>
+      <c r="D133" s="36"/>
+      <c r="E133" s="36"/>
+      <c r="F133" s="36"/>
+      <c r="G133" s="36"/>
+      <c r="H133" s="36"/>
+      <c r="I133" s="36"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
@@ -3787,17 +3783,17 @@
       </c>
       <c r="B136">
         <f>SQRT(B18*(B7^2+(B37^2/12)))</f>
-        <v>30.344233465774721</v>
+        <v>30.513266629193211</v>
       </c>
       <c r="C136" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F137" s="30" t="s">
+      <c r="F137" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="G137" s="30"/>
+      <c r="G137" s="38"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
@@ -3817,8 +3813,8 @@
       <c r="E138" t="s">
         <v>38</v>
       </c>
-      <c r="F138" s="30"/>
-      <c r="G138" s="30"/>
+      <c r="F138" s="38"/>
+      <c r="G138" s="38"/>
       <c r="H138" t="s">
         <v>160</v>
       </c>
@@ -3840,8 +3836,8 @@
       <c r="E139" t="s">
         <v>111</v>
       </c>
-      <c r="F139" s="30"/>
-      <c r="G139" s="30"/>
+      <c r="F139" s="38"/>
+      <c r="G139" s="38"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
@@ -3849,7 +3845,7 @@
       </c>
       <c r="B141" s="24">
         <f>(B136^2*B138)+(B11*B139*B9)</f>
-        <v>2.0023759094359028</v>
+        <v>2.0233612583838418</v>
       </c>
       <c r="C141" t="s">
         <v>18</v>
@@ -3861,10 +3857,10 @@
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B143" s="17"/>
       <c r="D143" s="4"/>
-      <c r="E143" s="28" t="s">
+      <c r="E143" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="F143" s="28"/>
+      <c r="F143" s="39"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
@@ -3872,7 +3868,7 @@
       </c>
       <c r="B144" s="17">
         <f>(B14-B13)/B141</f>
-        <v>37.455504556648677</v>
+        <v>37.067033723827542</v>
       </c>
       <c r="C144" t="s">
         <v>146</v>
@@ -3947,7 +3943,7 @@
       </c>
       <c r="B149" s="17">
         <f>B144-B145-B146-B148</f>
-        <v>36.838556869075909</v>
+        <v>36.450086036254774</v>
       </c>
       <c r="C149" t="s">
         <v>146</v>
@@ -3992,24 +3988,24 @@
       </c>
       <c r="B154">
         <f>B13+B141*B152</f>
-        <v>75.263872100208729</v>
+        <v>75.528643150090346</v>
       </c>
       <c r="C154" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A155" s="27" t="s">
+      <c r="A155" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="B155" s="27"/>
-      <c r="C155" s="27"/>
-      <c r="D155" s="27"/>
-      <c r="E155" s="27"/>
-      <c r="F155" s="27"/>
-      <c r="G155" s="27"/>
-      <c r="H155" s="27"/>
-      <c r="I155" s="27"/>
+      <c r="B155" s="36"/>
+      <c r="C155" s="36"/>
+      <c r="D155" s="36"/>
+      <c r="E155" s="36"/>
+      <c r="F155" s="36"/>
+      <c r="G155" s="36"/>
+      <c r="H155" s="36"/>
+      <c r="I155" s="36"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
@@ -4062,6 +4058,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A155:I155"/>
+    <mergeCell ref="A51:I51"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A102:I102"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="E143:F143"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="G109:I112"/>
     <mergeCell ref="A133:I133"/>
@@ -4071,13 +4074,6 @@
     <mergeCell ref="F80:G82"/>
     <mergeCell ref="F60:G62"/>
     <mergeCell ref="E70:F70"/>
-    <mergeCell ref="A155:I155"/>
-    <mergeCell ref="A51:I51"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A102:I102"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="E143:F143"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/latex/calc/DC_Converter_Calc.xlsx
+++ b/latex/calc/DC_Converter_Calc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Privat\Git\Projektarbeit-Hochvolt-Elektrik-Komponenten-FSE-Fahrzeug\latex\calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121AB83E-CB32-4D16-B942-B3D7EF087127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0325C6-4DE9-4918-AEC2-FD6E95A0400A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="191">
   <si>
     <t>Eingangsparameter</t>
   </si>
@@ -221,12 +221,6 @@
     <t>R_Timer</t>
   </si>
   <si>
-    <t>V_trip_min</t>
-  </si>
-  <si>
-    <t>I_catch_FET</t>
-  </si>
-  <si>
     <t>R_DS_on</t>
   </si>
   <si>
@@ -254,27 +248,12 @@
     <t>S=2</t>
   </si>
   <si>
-    <t>&gt;=66mv</t>
-  </si>
-  <si>
     <t>R_sns</t>
   </si>
   <si>
-    <t>R_sns req.</t>
-  </si>
-  <si>
     <t>festgelegt</t>
   </si>
   <si>
-    <t>V_trip</t>
-  </si>
-  <si>
-    <t>aus Spice modell</t>
-  </si>
-  <si>
-    <t>I_catch_FET_max</t>
-  </si>
-  <si>
     <t xml:space="preserve">mOhm </t>
   </si>
   <si>
@@ -431,36 +410,6 @@
     <t xml:space="preserve">IXFK240N25X3 </t>
   </si>
   <si>
-    <t>Housekeeping Mosfet</t>
-  </si>
-  <si>
-    <t>Based on refernece design BSP300</t>
-  </si>
-  <si>
-    <t>190mA</t>
-  </si>
-  <si>
-    <t>R_ds_on</t>
-  </si>
-  <si>
-    <t>N_channel</t>
-  </si>
-  <si>
-    <t>V_DS</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>I_cont</t>
-  </si>
-  <si>
-    <t>1,85A</t>
-  </si>
-  <si>
-    <t>N_Channel</t>
-  </si>
-  <si>
     <t>AGM2222-562</t>
   </si>
   <si>
@@ -609,18 +558,70 @@
   </si>
   <si>
     <t>Vtrip max muss größer Vtrip sein</t>
+  </si>
+  <si>
+    <t>Parallel Capacitance 5,2*10^-12</t>
+  </si>
+  <si>
+    <t>Vtrip</t>
+  </si>
+  <si>
+    <t>Werte aus der Sim</t>
+  </si>
+  <si>
+    <t>Active Clamp Fet</t>
+  </si>
+  <si>
+    <t>Primary Fet</t>
+  </si>
+  <si>
+    <t>Catch Fet</t>
+  </si>
+  <si>
+    <t>Forward Fet</t>
+  </si>
+  <si>
+    <t>600V 40A</t>
+  </si>
+  <si>
+    <t>230V 40A</t>
+  </si>
+  <si>
+    <t>I_catch_FET_max_reverse</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Gesamtwerte</t>
+  </si>
+  <si>
+    <t>Pin</t>
+  </si>
+  <si>
+    <t>Pout</t>
+  </si>
+  <si>
+    <t>Wirkungsgrad</t>
+  </si>
+  <si>
+    <t>600V 10A</t>
+  </si>
+  <si>
+    <t>230V 10A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.000%"/>
     <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="169" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -658,7 +659,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -716,7 +719,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -748,15 +751,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -767,6 +770,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -954,9 +963,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>512444</xdr:colOff>
+      <xdr:colOff>516254</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>91750</xdr:rowOff>
+      <xdr:rowOff>95560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1000,7 +1009,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>170422</xdr:rowOff>
+      <xdr:rowOff>174232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1042,9 +1051,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>554903</xdr:colOff>
+      <xdr:colOff>551093</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:rowOff>60959</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1086,9 +1095,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>22531</xdr:colOff>
+      <xdr:colOff>18721</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>172295</xdr:rowOff>
+      <xdr:rowOff>168485</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1129,10 +1138,10 @@
       <xdr:rowOff>60463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>134566</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1184221</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>22381</xdr:rowOff>
+      <xdr:rowOff>18571</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1218,9 +1227,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>20853</xdr:colOff>
+      <xdr:colOff>17043</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>134847</xdr:rowOff>
+      <xdr:rowOff>131037</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1257,14 +1266,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>406200</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>174061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>778422</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>169837</xdr:rowOff>
+      <xdr:colOff>572682</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>173647</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1306,7 +1315,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>18197</xdr:colOff>
+      <xdr:colOff>22007</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>464</xdr:rowOff>
     </xdr:to>
@@ -1350,9 +1359,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>133348</xdr:colOff>
+      <xdr:colOff>137158</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>167720</xdr:rowOff>
+      <xdr:rowOff>171530</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1572,14 +1581,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>446689</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>141890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>914399</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>56289</xdr:rowOff>
+      <xdr:colOff>704849</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>60099</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1604,6 +1613,50 @@
         <a:xfrm>
           <a:off x="4882055" y="21845752"/>
           <a:ext cx="1902372" cy="462382"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>58070</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>134993</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>36655</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>131591</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Grafik 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BC82539-6593-54BB-2781-1D1C156A1E81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7323346" y="6756510"/>
+          <a:ext cx="3834568" cy="552201"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1878,24 +1931,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X160"/>
+  <dimension ref="A1:X168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A129" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G156" sqref="G156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -1911,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1925,7 +1979,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1938,8 +1992,8 @@
       <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="28" t="s">
-        <v>187</v>
+      <c r="G4" s="27" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1953,7 +2007,7 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1967,7 +2021,7 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -2009,7 +2063,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B11" s="12">
         <v>10</v>
@@ -2020,29 +2074,29 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B13" s="12">
         <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B14" s="12">
         <v>125</v>
       </c>
       <c r="C14" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="36" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -2090,7 +2144,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B19" s="6">
         <f>(B17+B18)/2</f>
@@ -2101,14 +2155,14 @@
       <c r="A21" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="29">
+      <c r="B21" s="28">
         <f>(B5/B3)*B16</f>
         <v>5.75</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="28">
         <f>(B5/B3)*D16</f>
         <v>6.708333333333333</v>
       </c>
@@ -2132,14 +2186,14 @@
         <v>5.4945054945054945</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D23" s="15">
         <f>1/B23</f>
         <v>0.182</v>
       </c>
       <c r="E23" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -2250,7 +2304,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="36" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
@@ -2263,7 +2317,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="B32" s="12">
         <v>4</v>
@@ -2272,14 +2326,14 @@
         <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>173</v>
-      </c>
-      <c r="B33" s="30">
+        <v>156</v>
+      </c>
+      <c r="B33" s="29">
         <f>B32/B7</f>
         <v>0.1</v>
       </c>
@@ -2317,7 +2371,7 @@
       <c r="C35" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="29">
+      <c r="D35" s="28">
         <f>B35*10^6</f>
         <v>47.441130298273158</v>
       </c>
@@ -2325,7 +2379,7 @@
         <v>13</v>
       </c>
       <c r="F35" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>32</v>
@@ -2334,7 +2388,7 @@
         <v>33</v>
       </c>
       <c r="I35" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -2349,23 +2403,23 @@
       </c>
       <c r="D36" s="2"/>
       <c r="F36" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="G36" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="H36" t="s">
         <v>33</v>
       </c>
       <c r="I36" s="22" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>188</v>
-      </c>
-      <c r="B37" s="28">
+        <v>171</v>
+      </c>
+      <c r="B37" s="27">
         <f>B3/(B36*10^-6*B9)*(1-(B3/B6)*B23)</f>
         <v>16.943260820811844</v>
       </c>
@@ -2377,6 +2431,9 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D38" s="2"/>
+      <c r="F38" t="s">
+        <v>174</v>
+      </c>
       <c r="I38" s="22"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -2409,7 +2466,7 @@
         <v>1.6021949078138715E-3</v>
       </c>
       <c r="D41" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="F41" s="12">
         <f>1/((1/55.3)+(1/3.3)+(1/3.3))</f>
@@ -2419,7 +2476,7 @@
         <v>38</v>
       </c>
       <c r="H41" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -2433,7 +2490,7 @@
       <c r="C42" t="s">
         <v>48</v>
       </c>
-      <c r="D42" s="29">
+      <c r="D42" s="28">
         <f>B42*10^6</f>
         <v>90.667260492846225</v>
       </c>
@@ -2452,7 +2509,7 @@
       <c r="C44" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="29">
+      <c r="D44" s="28">
         <f>B44*10^3</f>
         <v>5.0718512256973787</v>
       </c>
@@ -2482,7 +2539,7 @@
       <c r="A47" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="31">
+      <c r="B47" s="30">
         <f>(D46*((1/((B5/1.25)-1))+1))/(B6/1.25)</f>
         <v>1994.9692080839623</v>
       </c>
@@ -2494,7 +2551,7 @@
       <c r="A48" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="31">
+      <c r="B48" s="30">
         <f>B47*((B6/1.25)-1)-D46</f>
         <v>3469.5116662330693</v>
       </c>
@@ -2524,7 +2581,7 @@
         <v>9</v>
       </c>
       <c r="R49" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="S49">
         <v>32.799999999999997</v>
@@ -2533,27 +2590,27 @@
         <v>20</v>
       </c>
       <c r="U49" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="V49" t="s">
+        <v>74</v>
+      </c>
+      <c r="W49" t="s">
         <v>81</v>
-      </c>
-      <c r="W49" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="32">
+      <c r="B50" s="31">
         <f>(D16/(0.725*((B9/1000)/300)*(1.25/B49)))*51.1*10^3</f>
         <v>148013.79310345076</v>
       </c>
       <c r="C50" t="s">
         <v>46</v>
       </c>
-      <c r="D50" s="31">
+      <c r="D50" s="30">
         <f>B50*10^-3</f>
         <v>148.01379310345078</v>
       </c>
@@ -2562,7 +2619,7 @@
       </c>
       <c r="F50" s="5"/>
       <c r="R50" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="S50">
         <v>3</v>
@@ -2571,18 +2628,18 @@
         <v>20</v>
       </c>
       <c r="V50" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="W50">
         <v>39.85</v>
       </c>
       <c r="X50" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51" s="36" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B51" s="36"/>
       <c r="C51" s="36"/>
@@ -2593,7 +2650,7 @@
       <c r="H51" s="36"/>
       <c r="I51" s="36"/>
       <c r="R51" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="S51">
         <v>1043</v>
@@ -2602,7 +2659,7 @@
         <v>18</v>
       </c>
       <c r="V51" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.3">
@@ -2614,10 +2671,10 @@
         <v>0.20931449502878077</v>
       </c>
       <c r="D52" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="R52" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="S52">
         <v>953</v>
@@ -2637,7 +2694,7 @@
       <c r="C53" t="s">
         <v>48</v>
       </c>
-      <c r="D53" s="33">
+      <c r="D53" s="32">
         <f>B53*10^9</f>
         <v>4.0605345564331667</v>
       </c>
@@ -2646,14 +2703,14 @@
       </c>
       <c r="G53" s="1"/>
       <c r="R53" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S53" s="4">
         <f>(S52/S51)*100</f>
         <v>91.371045062320235</v>
       </c>
       <c r="T53" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.3">
@@ -2667,7 +2724,7 @@
       <c r="C54" t="s">
         <v>48</v>
       </c>
-      <c r="D54" s="33">
+      <c r="D54" s="32">
         <f>B54*10^9</f>
         <v>24.363207338599</v>
       </c>
@@ -2675,7 +2732,7 @@
         <v>49</v>
       </c>
       <c r="R54" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="S54">
         <v>1.6E-2</v>
@@ -2688,7 +2745,7 @@
       <c r="A56" t="s">
         <v>51</v>
       </c>
-      <c r="B56" s="31">
+      <c r="B56" s="30">
         <f>(1/(1-B18))*SQRT(B25*10^-6/B53)</f>
         <v>2296.9866312323384</v>
       </c>
@@ -2700,7 +2757,7 @@
       <c r="A58" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="28">
+      <c r="B58" s="27">
         <f>(1.2/(B9/B10))*22.1*10^6</f>
         <v>530.40000000000009</v>
       </c>
@@ -2710,7 +2767,7 @@
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A59" s="36" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B59" s="36"/>
       <c r="C59" s="36"/>
@@ -2723,7 +2780,7 @@
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B60" s="18">
         <f>0.5*B23*(B3/(B25*10^-6))*(1/B9)*2</f>
@@ -2733,30 +2790,30 @@
         <v>20</v>
       </c>
       <c r="F60" s="38" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="G60" s="38"/>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B61" s="18">
         <f>B78</f>
         <v>956.13236267372599</v>
       </c>
       <c r="D61" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F61" s="38"/>
       <c r="G61" s="38"/>
       <c r="H61" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="B62" s="18">
         <f>(1/B23)*(B7+(B37/2))</f>
@@ -2775,7 +2832,7 @@
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B64" s="18">
         <f>1*1.5</f>
@@ -2794,7 +2851,7 @@
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B66" s="4">
         <f>B60^2*B64</f>
@@ -2808,7 +2865,7 @@
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="B67" s="4">
         <v>2</v>
@@ -2818,7 +2875,7 @@
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B68" s="4">
         <f>B66*B67</f>
@@ -2835,7 +2892,7 @@
       <c r="F69" s="23"/>
       <c r="G69" s="23"/>
       <c r="R69" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="S69">
         <v>31.3</v>
@@ -2844,25 +2901,25 @@
         <v>20</v>
       </c>
       <c r="U69" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="V69" t="s">
+        <v>74</v>
+      </c>
+      <c r="W69" t="s">
         <v>81</v>
-      </c>
-      <c r="W69" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B70" s="17"/>
       <c r="D70" s="4"/>
       <c r="E70" s="39" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="F70" s="39"/>
       <c r="G70" s="23"/>
       <c r="R70" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="S70">
         <v>2.84</v>
@@ -2871,36 +2928,36 @@
         <v>20</v>
       </c>
       <c r="V70" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="W70">
         <v>39.85</v>
       </c>
       <c r="X70" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B71" s="17">
         <f>(B14-B13)/B68</f>
         <v>218.67015624999993</v>
       </c>
       <c r="C71" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="12">
         <v>0.35</v>
       </c>
       <c r="F71" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="G71" s="23"/>
       <c r="R71" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="S71">
         <v>1001</v>
@@ -2909,18 +2966,18 @@
         <v>18</v>
       </c>
       <c r="V71" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="B72" s="20">
         <v>0.6</v>
       </c>
       <c r="C72" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72">
@@ -2928,13 +2985,13 @@
         <v>21.91</v>
       </c>
       <c r="F72" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="G72" s="23" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="R72" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="S72">
         <v>953</v>
@@ -2945,39 +3002,39 @@
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="B73" s="20">
         <v>62</v>
       </c>
       <c r="C73" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="E73">
         <f>1/E72</f>
         <v>4.5641259698767686E-2</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="G73" s="23"/>
       <c r="R73" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S73" s="4">
         <f>(S72/S71)*100</f>
         <v>95.204795204795204</v>
       </c>
       <c r="T73" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="B74" s="17">
         <f>B72+B73</f>
@@ -2986,7 +3043,7 @@
       <c r="D74" s="4"/>
       <c r="G74" s="23"/>
       <c r="R74" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="S74">
         <v>1.7999999999999999E-2</v>
@@ -2997,14 +3054,14 @@
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="B75" s="17">
         <f>(B68*B74)+B13</f>
         <v>71.470693946147492</v>
       </c>
       <c r="C75" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="D75" s="4"/>
       <c r="G75" s="23"/>
@@ -3016,7 +3073,7 @@
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A77" s="36" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B77" s="36"/>
       <c r="C77" s="36"/>
@@ -3029,7 +3086,7 @@
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B78" s="4">
         <f>((B6^2)/(B6-(B3*B23)))*1.2</f>
@@ -3041,7 +3098,7 @@
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B79" s="4">
         <f>SQRT(B84/B80)</f>
@@ -3053,7 +3110,7 @@
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B80">
         <f>0.15*1.5</f>
@@ -3063,56 +3120,56 @@
         <v>37</v>
       </c>
       <c r="F80" s="38" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G80" s="38"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B81" s="1">
         <f>D81*10^-9</f>
         <v>3.0000000000000004E-8</v>
       </c>
       <c r="C81" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D81" s="12">
         <v>30</v>
       </c>
       <c r="E81" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F81" s="38"/>
       <c r="G81" s="38"/>
       <c r="H81" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B82" s="1">
         <f>D82*10^-9</f>
         <v>6.0000000000000008E-9</v>
       </c>
       <c r="C82" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D82">
         <v>6</v>
       </c>
       <c r="E82" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F82" s="38"/>
       <c r="G82" s="38"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B84" s="4">
         <f>B23*(B3/B5)*((1/B23)*B7)^2*B80</f>
@@ -3124,7 +3181,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B85" s="4">
         <f>B81*B11*B9</f>
@@ -3136,7 +3193,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B86" s="4">
         <f>0.5*B7*D23*(B6/(1-B18))*(B82/2)*B9</f>
@@ -3148,7 +3205,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B87" s="4">
         <f>0.5*B7*D23*B78*(B82/2)*B9</f>
@@ -3160,7 +3217,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B88" s="4">
         <f>B84+B85+B86+B87</f>
@@ -3173,7 +3230,7 @@
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B89" s="4"/>
       <c r="E89" s="25" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="F89" s="25"/>
     </row>
@@ -3184,19 +3241,19 @@
         <v>0.35</v>
       </c>
       <c r="F90" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B91" s="17">
         <f>(B14-B13)/B88</f>
         <v>7.8753415917559915</v>
       </c>
       <c r="C91" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91">
@@ -3204,18 +3261,18 @@
         <v>112.84</v>
       </c>
       <c r="F91" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="B92" s="20">
         <v>0.9</v>
       </c>
       <c r="C92" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92">
@@ -3223,7 +3280,7 @@
         <v>8.8621056362991838E-3</v>
       </c>
       <c r="F92" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
@@ -3232,41 +3289,41 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B94" s="17">
         <f>15.5*20.8</f>
         <v>322.40000000000003</v>
       </c>
       <c r="C94" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="B95" s="17">
         <f>E92</f>
         <v>8.8621056362991838E-3</v>
       </c>
       <c r="C95" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="B96" s="17"/>
       <c r="D96" s="4" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
@@ -3275,26 +3332,26 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="B98">
         <v>3.9</v>
       </c>
       <c r="C98" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="D98" s="4"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="B99" s="16">
         <f>B92+B95+B98</f>
         <v>4.8088621056362992</v>
       </c>
       <c r="C99" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="D99" s="4"/>
     </row>
@@ -3303,19 +3360,19 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="B101">
         <f>B13+B88*B99</f>
         <v>95.796700209203721</v>
       </c>
       <c r="C101" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="36" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B102" s="36"/>
       <c r="C102" s="36"/>
@@ -3328,7 +3385,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B103" s="6">
         <f>B6*(1/B23)*2</f>
@@ -3338,737 +3395,791 @@
         <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>62</v>
-      </c>
-      <c r="B104" s="34">
-        <v>4.5</v>
-      </c>
-      <c r="C104" t="s">
-        <v>20</v>
-      </c>
-      <c r="D104" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>63</v>
-      </c>
-      <c r="B106" s="20">
-        <f>D106*10^-3</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>61</v>
+      </c>
+      <c r="B105" s="20">
+        <f>D105*10^-3</f>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C105" t="s">
         <v>37</v>
       </c>
-      <c r="D106" s="12">
+      <c r="D105" s="12">
         <f>5*1.6</f>
         <v>8</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E105" t="s">
         <v>38</v>
       </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G106" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="H106" s="38"/>
+      <c r="I106" s="38"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>61</v>
-      </c>
-      <c r="B107" s="7">
-        <f>B104*B106</f>
-        <v>3.6000000000000004E-2</v>
+        <v>64</v>
+      </c>
+      <c r="B107" s="12">
+        <v>2000</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="6">
-        <f>B107*10^3</f>
-        <v>36.000000000000007</v>
-      </c>
-      <c r="E107" t="s">
-        <v>64</v>
-      </c>
-      <c r="F107" t="s">
-        <v>72</v>
-      </c>
-      <c r="G107" t="s">
-        <v>74</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="D107" t="s">
+        <v>154</v>
+      </c>
+      <c r="G107" s="38"/>
+      <c r="H107" s="38"/>
+      <c r="I107" s="38"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>76</v>
-      </c>
-      <c r="B108" s="6">
-        <f>D107*1.2</f>
-        <v>43.20000000000001</v>
+        <v>65</v>
+      </c>
+      <c r="B108" s="12">
+        <v>300</v>
       </c>
       <c r="C108" t="s">
-        <v>64</v>
+        <v>9</v>
+      </c>
+      <c r="G108" s="38"/>
+      <c r="H108" s="38"/>
+      <c r="I108" s="38"/>
+      <c r="J108" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G109" s="37" t="s">
-        <v>130</v>
-      </c>
+      <c r="A109" t="s">
+        <v>63</v>
+      </c>
+      <c r="B109" s="28">
+        <f>B105*SQRT(2*B107*10^-3*((1.3*B108-B3)/(1.3*B108*B36*10^-6)))</f>
+        <v>4.6314737881747163</v>
+      </c>
+      <c r="C109" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="33">
+        <f>B109*10^3</f>
+        <v>4631.473788174716</v>
+      </c>
+      <c r="E109" t="s">
+        <v>62</v>
+      </c>
+      <c r="G109" s="38"/>
       <c r="H109" s="38"/>
       <c r="I109" s="38"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>66</v>
-      </c>
-      <c r="B110" s="12">
-        <v>2000</v>
+        <v>183</v>
+      </c>
+      <c r="B110" s="28">
+        <f>B109/B105</f>
+        <v>578.9342235218395</v>
       </c>
       <c r="C110" t="s">
-        <v>68</v>
-      </c>
-      <c r="D110" t="s">
-        <v>171</v>
-      </c>
-      <c r="G110" s="38"/>
-      <c r="H110" s="38"/>
-      <c r="I110" s="38"/>
+        <v>20</v>
+      </c>
+      <c r="D110" s="12">
+        <v>120</v>
+      </c>
+      <c r="E110" t="s">
+        <v>20</v>
+      </c>
+      <c r="F110" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>67</v>
-      </c>
-      <c r="B111" s="12">
-        <v>300</v>
-      </c>
-      <c r="C111" t="s">
-        <v>9</v>
-      </c>
-      <c r="G111" s="38"/>
-      <c r="H111" s="38"/>
-      <c r="I111" s="38"/>
-      <c r="J111" t="s">
-        <v>159</v>
+      <c r="B111" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>65</v>
-      </c>
-      <c r="B112" s="29">
-        <f>B106*SQRT(2*B110*10^-3*((1.3*B111-B3)/(1.3*B111*B36*10^-6)))</f>
-        <v>4.6314737881747163</v>
+        <v>67</v>
+      </c>
+      <c r="B112" s="12">
+        <v>0</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="35">
-        <f>B112*10^3</f>
-        <v>4631.473788174716</v>
-      </c>
-      <c r="E112" t="s">
-        <v>64</v>
-      </c>
-      <c r="G112" s="38"/>
-      <c r="H112" s="38"/>
-      <c r="I112" s="38"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="D112" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>78</v>
-      </c>
-      <c r="B113" s="29">
-        <f>B112/B106</f>
-        <v>578.9342235218395</v>
+        <v>70</v>
+      </c>
+      <c r="B113" s="34">
+        <f>(((0.066/(40*10^-3))-B112)*40*10^-3)/D110</f>
+        <v>5.5000000000000003E-4</v>
       </c>
       <c r="C113" t="s">
-        <v>20</v>
-      </c>
-      <c r="D113" s="12">
-        <v>120</v>
+        <v>37</v>
+      </c>
+      <c r="D113" s="28">
+        <f>B113*10^3</f>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E113" t="s">
-        <v>20</v>
-      </c>
-      <c r="F113" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B114" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="F113" s="12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G113" t="s">
+        <v>72</v>
+      </c>
+      <c r="H113" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D114" s="4"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>69</v>
-      </c>
-      <c r="B115" s="12">
-        <v>1000</v>
-      </c>
-      <c r="C115" t="s">
-        <v>37</v>
-      </c>
-      <c r="D115" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>73</v>
-      </c>
-      <c r="B116" s="27">
-        <f>((B115*40*10^-6)+66*10^-3)/D113</f>
-        <v>8.8333333333333341E-4</v>
-      </c>
-      <c r="C116" t="s">
-        <v>37</v>
-      </c>
-      <c r="D116" s="29">
-        <f>B116*10^3</f>
-        <v>0.88333333333333341</v>
-      </c>
-      <c r="E116" t="s">
-        <v>38</v>
-      </c>
-      <c r="F116" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="G116" t="s">
-        <v>79</v>
-      </c>
-      <c r="H116" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D117" s="4"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>125</v>
-      </c>
-      <c r="B118" s="29">
+        <v>118</v>
+      </c>
+      <c r="B115" s="28">
         <f>SQRT((1-B17)*(B7^2+(B37^2/12)))</f>
         <v>35.833116683549576</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C115" t="s">
         <v>20</v>
       </c>
+      <c r="D115" s="4"/>
+      <c r="I115">
+        <f>D113*10^-3*D110</f>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="J115" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>102</v>
+      </c>
+      <c r="B116" s="21">
+        <f>D116*10^-9</f>
+        <v>3.4500000000000003E-7</v>
+      </c>
+      <c r="C116" t="s">
+        <v>105</v>
+      </c>
+      <c r="D116" s="19">
+        <v>345</v>
+      </c>
+      <c r="E116" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117" s="17">
+        <f>(B115^2*B105)+(B11*B9*B116)</f>
+        <v>10.617098010055033</v>
+      </c>
+      <c r="C117" t="s">
+        <v>18</v>
+      </c>
+      <c r="D117" s="4"/>
+      <c r="I117">
+        <f>(0.066-I115)/(40*10^-6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B118" s="17"/>
       <c r="D118" s="4"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E118" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="F118" s="39"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>109</v>
-      </c>
-      <c r="B119" s="21">
-        <f>D119*10^-9</f>
-        <v>3.4500000000000003E-7</v>
+        <v>127</v>
+      </c>
+      <c r="B119" s="17">
+        <f>(B14-B13)/B117</f>
+        <v>7.0640772016016502</v>
       </c>
       <c r="C119" t="s">
-        <v>112</v>
-      </c>
-      <c r="D119" s="19">
-        <v>345</v>
-      </c>
-      <c r="E119" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="D119" s="4"/>
+      <c r="E119" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="F119" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>127</v>
-      </c>
-      <c r="B120" s="17">
-        <f>(B118^2*B106)+(B11*B9*B119)</f>
-        <v>10.617098010055033</v>
+        <v>130</v>
+      </c>
+      <c r="B120" s="20">
+        <v>0.1</v>
       </c>
       <c r="C120" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="D120" s="4"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B121" s="17"/>
+      <c r="E120" s="15">
+        <f>E119*B122</f>
+        <v>177.20149999999998</v>
+      </c>
+      <c r="F120" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>131</v>
+      </c>
+      <c r="B121" s="20">
+        <v>0.15</v>
+      </c>
+      <c r="C121" t="s">
+        <v>129</v>
+      </c>
       <c r="D121" s="4"/>
-      <c r="E121" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="F121" s="39"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E121" s="15">
+        <f>1/E120</f>
+        <v>5.6432930872481329E-3</v>
+      </c>
+      <c r="F121" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B122" s="17">
-        <f>(B14-B13)/B120</f>
-        <v>7.0640772016016502</v>
-      </c>
-      <c r="C122" t="s">
-        <v>146</v>
-      </c>
-      <c r="D122" s="4"/>
-      <c r="E122" s="12">
-        <v>0.35</v>
-      </c>
-      <c r="F122" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>147</v>
-      </c>
-      <c r="B123" s="20">
-        <v>0.1</v>
-      </c>
-      <c r="C123" t="s">
-        <v>146</v>
-      </c>
-      <c r="D123" s="4"/>
-      <c r="E123" s="15">
-        <f>E122*B125</f>
-        <v>177.20149999999998</v>
-      </c>
-      <c r="F123" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>148</v>
-      </c>
-      <c r="B124" s="20">
-        <v>0.15</v>
-      </c>
-      <c r="C124" t="s">
-        <v>146</v>
-      </c>
-      <c r="D124" s="4"/>
-      <c r="E124" s="15">
-        <f>1/E123</f>
-        <v>5.6432930872481329E-3</v>
-      </c>
-      <c r="F124" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>149</v>
-      </c>
-      <c r="B125" s="17">
         <f>19.7*25.7</f>
         <v>506.28999999999996</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C122" t="s">
+        <v>133</v>
+      </c>
+      <c r="D122" s="4"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>134</v>
+      </c>
+      <c r="B123" s="17">
+        <f>E121</f>
+        <v>5.6432930872481329E-3</v>
+      </c>
+      <c r="C123" t="s">
+        <v>129</v>
+      </c>
+      <c r="D123" s="4"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>135</v>
+      </c>
+      <c r="B124" s="17">
+        <f>B119-B120-B121-B123</f>
+        <v>6.8084339085144023</v>
+      </c>
+      <c r="C124" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B125" s="17"/>
+      <c r="D125" s="35"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
         <v>150</v>
       </c>
-      <c r="D125" s="4"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>151</v>
-      </c>
-      <c r="B126" s="17">
-        <f>E124</f>
-        <v>5.6432930872481329E-3</v>
+      <c r="B126" s="12">
+        <v>4.7</v>
       </c>
       <c r="C126" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="D126" s="4"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B127" s="17">
-        <f>B122-B123-B124-B126</f>
-        <v>6.8084339085144023</v>
-      </c>
-      <c r="C127" t="s">
-        <v>146</v>
+        <f>B120+B121+B123+B126</f>
+        <v>4.955643293087248</v>
       </c>
       <c r="D127" s="4"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B128" s="17"/>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D128" s="4"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>167</v>
-      </c>
-      <c r="B129" s="12">
-        <v>4.7</v>
+        <v>149</v>
+      </c>
+      <c r="B129" s="27">
+        <f>B13+B117*B127</f>
+        <v>102.61455054557919</v>
       </c>
       <c r="C129" t="s">
-        <v>146</v>
-      </c>
-      <c r="D129" s="4"/>
+        <v>126</v>
+      </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>165</v>
-      </c>
-      <c r="B130" s="17">
-        <f>B123+B124+B126+B129</f>
-        <v>4.955643293087248</v>
-      </c>
-      <c r="D130" s="4"/>
+      <c r="A130" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="B130" s="36"/>
+      <c r="C130" s="36"/>
+      <c r="D130" s="36"/>
+      <c r="E130" s="36"/>
+      <c r="F130" s="36"/>
+      <c r="G130" s="36"/>
+      <c r="H130" s="36"/>
+      <c r="I130" s="36"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D131" s="4"/>
+      <c r="A131" t="s">
+        <v>115</v>
+      </c>
+      <c r="B131" s="4">
+        <f>(B3/(1-(B3/(B5*D23))))*1.2</f>
+        <v>67.501007838745792</v>
+      </c>
+      <c r="C131" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>166</v>
-      </c>
-      <c r="B132" s="28">
-        <f>B13+B120*B130</f>
-        <v>102.61455054557919</v>
+        <v>115</v>
+      </c>
+      <c r="B132" s="4">
+        <f>(B3/(B9*2*SQRT(B25*10^-6*B53)))</f>
+        <v>30.154861431004125</v>
       </c>
       <c r="C132" t="s">
-        <v>143</v>
+        <v>9</v>
+      </c>
+      <c r="D132" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A133" s="36" t="s">
+      <c r="A133" t="s">
+        <v>118</v>
+      </c>
+      <c r="B133">
+        <f>SQRT(B18*(B7^2+(B37^2/12)))</f>
+        <v>30.513266629193211</v>
+      </c>
+      <c r="C133" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F134" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="B133" s="36"/>
-      <c r="C133" s="36"/>
-      <c r="D133" s="36"/>
-      <c r="E133" s="36"/>
-      <c r="F133" s="36"/>
-      <c r="G133" s="36"/>
-      <c r="H133" s="36"/>
-      <c r="I133" s="36"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>122</v>
-      </c>
-      <c r="B134" s="4">
-        <f>(B3/(1-(B3/(B5*D23))))*1.2</f>
-        <v>67.501007838745792</v>
-      </c>
-      <c r="C134" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" t="s">
-        <v>124</v>
-      </c>
+      <c r="G134" s="38"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>122</v>
-      </c>
-      <c r="B135" s="4">
-        <f>(B3/(B9*2*SQRT(B25*10^-6*B53)))</f>
-        <v>30.154861431004125</v>
+        <v>61</v>
+      </c>
+      <c r="B135" s="16">
+        <f>D135*10^-3</f>
+        <v>2.0400000000000001E-3</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135" t="s">
-        <v>123</v>
+        <v>37</v>
+      </c>
+      <c r="D135">
+        <f>1.7*1.2</f>
+        <v>2.04</v>
+      </c>
+      <c r="E135" t="s">
+        <v>38</v>
+      </c>
+      <c r="F135" s="38"/>
+      <c r="G135" s="38"/>
+      <c r="H135" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>125</v>
-      </c>
-      <c r="B136">
-        <f>SQRT(B18*(B7^2+(B37^2/12)))</f>
-        <v>30.513266629193211</v>
+        <v>102</v>
+      </c>
+      <c r="B136" s="1">
+        <f>D136*10^-9</f>
+        <v>1.24E-7</v>
       </c>
       <c r="C136" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F137" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="G137" s="38"/>
+        <v>105</v>
+      </c>
+      <c r="D136">
+        <v>124</v>
+      </c>
+      <c r="E136" t="s">
+        <v>104</v>
+      </c>
+      <c r="F136" s="38"/>
+      <c r="G136" s="38"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>63</v>
-      </c>
-      <c r="B138" s="16">
-        <f>D138*10^-3</f>
-        <v>2.0400000000000001E-3</v>
+        <v>119</v>
+      </c>
+      <c r="B138" s="24">
+        <f>(B133^2*B135)+(B11*B136*B9)</f>
+        <v>2.0233612583838418</v>
       </c>
       <c r="C138" t="s">
-        <v>37</v>
-      </c>
-      <c r="D138">
-        <f>1.7*1.2</f>
-        <v>2.04</v>
-      </c>
-      <c r="E138" t="s">
-        <v>38</v>
-      </c>
-      <c r="F138" s="38"/>
-      <c r="G138" s="38"/>
-      <c r="H138" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>109</v>
-      </c>
-      <c r="B139" s="1">
-        <f>D139*10^-9</f>
-        <v>1.24E-7</v>
-      </c>
-      <c r="C139" t="s">
-        <v>112</v>
-      </c>
-      <c r="D139">
-        <v>124</v>
-      </c>
-      <c r="E139" t="s">
-        <v>111</v>
-      </c>
-      <c r="F139" s="38"/>
-      <c r="G139" s="38"/>
+      <c r="B139" s="4"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B140" s="17"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="F140" s="39"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>126</v>
-      </c>
-      <c r="B141" s="24">
-        <f>(B136^2*B138)+(B11*B139*B9)</f>
-        <v>2.0233612583838418</v>
+        <v>127</v>
+      </c>
+      <c r="B141" s="17">
+        <f>(B14-B13)/B138</f>
+        <v>37.067033723827542</v>
       </c>
       <c r="C141" t="s">
-        <v>18</v>
+        <v>129</v>
+      </c>
+      <c r="D141" s="4"/>
+      <c r="E141" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="F141" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B142" s="4"/>
+      <c r="A142" t="s">
+        <v>130</v>
+      </c>
+      <c r="B142" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="C142" t="s">
+        <v>129</v>
+      </c>
+      <c r="D142" s="4"/>
+      <c r="E142">
+        <f>E141*B144</f>
+        <v>59.005099999999999</v>
+      </c>
+      <c r="F142" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B143" s="17"/>
+      <c r="B143" s="20"/>
       <c r="D143" s="4"/>
-      <c r="E143" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="F143" s="39"/>
+      <c r="E143">
+        <f>1/E142</f>
+        <v>1.6947687572769134E-2</v>
+      </c>
+      <c r="F143" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B144" s="17">
-        <f>(B14-B13)/B141</f>
-        <v>37.067033723827542</v>
+        <f>10.67*15.8</f>
+        <v>168.58600000000001</v>
       </c>
       <c r="C144" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="D144" s="4"/>
-      <c r="E144" s="12">
-        <v>0.35</v>
-      </c>
-      <c r="F144" t="s">
-        <v>154</v>
-      </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>147</v>
-      </c>
-      <c r="B145" s="20">
-        <v>0.6</v>
+        <v>131</v>
+      </c>
+      <c r="B145" s="17">
+        <f>E143</f>
+        <v>1.6947687572769134E-2</v>
       </c>
       <c r="C145" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="D145" s="4"/>
-      <c r="E145">
-        <f>E144*B147</f>
-        <v>59.005099999999999</v>
-      </c>
-      <c r="F145" t="s">
-        <v>155</v>
-      </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B146" s="20"/>
+      <c r="A146" t="s">
+        <v>135</v>
+      </c>
+      <c r="B146" s="17">
+        <f>B141-B142-B143-B145</f>
+        <v>36.450086036254774</v>
+      </c>
+      <c r="C146" t="s">
+        <v>129</v>
+      </c>
       <c r="D146" s="4"/>
-      <c r="E146">
-        <f>1/E145</f>
-        <v>1.6947687572769134E-2</v>
-      </c>
-      <c r="F146" t="s">
-        <v>146</v>
-      </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>149</v>
-      </c>
-      <c r="B147" s="17">
-        <f>10.67*15.8</f>
-        <v>168.58600000000001</v>
-      </c>
-      <c r="C147" t="s">
-        <v>150</v>
-      </c>
+      <c r="B147" s="17"/>
       <c r="D147" s="4"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>148</v>
-      </c>
-      <c r="B148" s="17">
-        <f>E146</f>
-        <v>1.6947687572769134E-2</v>
+        <v>144</v>
+      </c>
+      <c r="B148">
+        <v>12</v>
       </c>
       <c r="C148" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="D148" s="4"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>152</v>
-      </c>
-      <c r="B149" s="17">
-        <f>B144-B145-B146-B148</f>
-        <v>36.450086036254774</v>
+        <v>148</v>
+      </c>
+      <c r="B149" s="16">
+        <f>B142+B143+B145+B148</f>
+        <v>12.616947687572768</v>
       </c>
       <c r="C149" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="D149" s="4"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B150" s="17"/>
       <c r="D150" s="4"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B151">
-        <v>12</v>
+        <f>B13+B138*B149</f>
+        <v>75.528643150090346</v>
       </c>
       <c r="C151" t="s">
-        <v>146</v>
-      </c>
-      <c r="D151" s="4"/>
+        <v>126</v>
+      </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>165</v>
-      </c>
-      <c r="B152" s="16">
-        <f>B145+B146+B148+B151</f>
-        <v>12.616947687572768</v>
-      </c>
-      <c r="C152" t="s">
-        <v>146</v>
-      </c>
-      <c r="D152" s="4"/>
+      <c r="A152" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="B152" s="36"/>
+      <c r="C152" s="36"/>
+      <c r="D152" s="36"/>
+      <c r="E152" s="36"/>
+      <c r="F152" s="36"/>
+      <c r="G152" s="36"/>
+      <c r="H152" s="36"/>
+      <c r="I152" s="36"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D153" s="4"/>
+      <c r="A153" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="B153" s="41"/>
+      <c r="C153" t="s">
+        <v>181</v>
+      </c>
+      <c r="D153" t="s">
+        <v>182</v>
+      </c>
+      <c r="E153" t="s">
+        <v>189</v>
+      </c>
+      <c r="F153" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>166</v>
-      </c>
-      <c r="B154">
-        <f>B13+B141*B152</f>
-        <v>75.528643150090346</v>
-      </c>
-      <c r="C154" t="s">
-        <v>143</v>
+        <v>95</v>
+      </c>
+      <c r="B154" s="4">
+        <f>B60</f>
+        <v>0.33812341504649202</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A155" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="B155" s="36"/>
-      <c r="C155" s="36"/>
-      <c r="D155" s="36"/>
-      <c r="E155" s="36"/>
-      <c r="F155" s="36"/>
-      <c r="G155" s="36"/>
-      <c r="H155" s="36"/>
-      <c r="I155" s="36"/>
+      <c r="A155" t="s">
+        <v>96</v>
+      </c>
+      <c r="B155" s="4">
+        <f t="shared" ref="B155:B156" si="0">B61</f>
+        <v>956.13236267372599</v>
+      </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>132</v>
+        <v>145</v>
+      </c>
+      <c r="B156" s="4">
+        <f t="shared" si="0"/>
+        <v>8.8218367346938784</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>138</v>
-      </c>
-      <c r="B157" t="s">
-        <v>133</v>
-      </c>
-      <c r="C157" t="s">
-        <v>139</v>
-      </c>
+      <c r="A157" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="B157" s="41"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>134</v>
-      </c>
-      <c r="B158">
-        <v>15</v>
-      </c>
-      <c r="C158">
-        <v>6.25</v>
+        <v>99</v>
+      </c>
+      <c r="B158" s="4">
+        <f>B79</f>
+        <v>5.5123576586177476</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>137</v>
-      </c>
-      <c r="B159" t="s">
-        <v>135</v>
-      </c>
-      <c r="C159" t="s">
-        <v>140</v>
-      </c>
+      <c r="A159" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="B159" s="41"/>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="B160">
-        <v>800</v>
-      </c>
-      <c r="C160">
-        <v>1000</v>
+        <f>B103</f>
+        <v>229.32</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>183</v>
+      </c>
+      <c r="B161" s="4">
+        <f>B110</f>
+        <v>578.9342235218395</v>
+      </c>
+      <c r="C161" t="s">
+        <v>184</v>
+      </c>
+      <c r="D161" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="B162" s="41"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>115</v>
+      </c>
+      <c r="B163" s="4">
+        <f>B131</f>
+        <v>67.501007838745792</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>118</v>
+      </c>
+      <c r="B164">
+        <f>B133</f>
+        <v>30.513266629193211</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="B165" s="40"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>188</v>
+      </c>
+      <c r="C168" t="e">
+        <f>C167/C166</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A155:I155"/>
+  <mergeCells count="21">
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A152:I152"/>
     <mergeCell ref="A51:I51"/>
     <mergeCell ref="A15:I15"/>
     <mergeCell ref="A31:I31"/>
     <mergeCell ref="A102:I102"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="E143:F143"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="E140:F140"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="G109:I112"/>
-    <mergeCell ref="A133:I133"/>
-    <mergeCell ref="F137:G139"/>
+    <mergeCell ref="G106:I109"/>
+    <mergeCell ref="A130:I130"/>
+    <mergeCell ref="F134:G136"/>
     <mergeCell ref="A59:I59"/>
     <mergeCell ref="A77:I77"/>
     <mergeCell ref="F80:G82"/>

--- a/latex/calc/DC_Converter_Calc.xlsx
+++ b/latex/calc/DC_Converter_Calc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Privat\Git\Projektarbeit-Hochvolt-Elektrik-Komponenten-FSE-Fahrzeug\latex\calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0325C6-4DE9-4918-AEC2-FD6E95A0400A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF9FE28-67BB-4546-9A6A-C361C9E653B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="192">
   <si>
     <t>Eingangsparameter</t>
   </si>
@@ -609,6 +609,9 @@
   </si>
   <si>
     <t>230V 10A</t>
+  </si>
+  <si>
+    <t>2 in reihe</t>
   </si>
 </sst>
 </file>
@@ -760,7 +763,16 @@
     <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -768,15 +780,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1933,8 +1936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G156" sqref="G156"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1948,17 +1951,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -2095,17 +2098,17 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -2303,17 +2306,17 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -2409,7 +2412,7 @@
         <v>163</v>
       </c>
       <c r="H36" t="s">
-        <v>33</v>
+        <v>191</v>
       </c>
       <c r="I36" s="22" t="s">
         <v>124</v>
@@ -2638,17 +2641,17 @@
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A51" s="36" t="s">
+      <c r="A51" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="B51" s="36"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="36"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
       <c r="R51" t="s">
         <v>77</v>
       </c>
@@ -2766,17 +2769,17 @@
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A59" s="36" t="s">
+      <c r="A59" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="B59" s="36"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
@@ -2789,10 +2792,10 @@
       <c r="C60" t="s">
         <v>20</v>
       </c>
-      <c r="F60" s="38" t="s">
+      <c r="F60" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="G60" s="38"/>
+      <c r="G60" s="41"/>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
@@ -2805,8 +2808,8 @@
       <c r="D61" t="s">
         <v>97</v>
       </c>
-      <c r="F61" s="38"/>
-      <c r="G61" s="38"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
       <c r="H61" t="s">
         <v>143</v>
       </c>
@@ -2822,8 +2825,8 @@
       <c r="C62" t="s">
         <v>20</v>
       </c>
-      <c r="F62" s="38"/>
-      <c r="G62" s="38"/>
+      <c r="F62" s="41"/>
+      <c r="G62" s="41"/>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B63" s="18"/>
@@ -3072,17 +3075,17 @@
       <c r="G76" s="23"/>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A77" s="36" t="s">
+      <c r="A77" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="B77" s="36"/>
-      <c r="C77" s="36"/>
-      <c r="D77" s="36"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="36"/>
-      <c r="G77" s="36"/>
-      <c r="H77" s="36"/>
-      <c r="I77" s="36"/>
+      <c r="B77" s="38"/>
+      <c r="C77" s="38"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="38"/>
+      <c r="F77" s="38"/>
+      <c r="G77" s="38"/>
+      <c r="H77" s="38"/>
+      <c r="I77" s="38"/>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
@@ -3119,10 +3122,10 @@
       <c r="C80" t="s">
         <v>37</v>
       </c>
-      <c r="F80" s="38" t="s">
+      <c r="F80" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="G80" s="38"/>
+      <c r="G80" s="41"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
@@ -3141,8 +3144,8 @@
       <c r="E81" t="s">
         <v>104</v>
       </c>
-      <c r="F81" s="38"/>
-      <c r="G81" s="38"/>
+      <c r="F81" s="41"/>
+      <c r="G81" s="41"/>
       <c r="H81" t="s">
         <v>140</v>
       </c>
@@ -3164,8 +3167,8 @@
       <c r="E82" t="s">
         <v>104</v>
       </c>
-      <c r="F82" s="38"/>
-      <c r="G82" s="38"/>
+      <c r="F82" s="41"/>
+      <c r="G82" s="41"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
@@ -3371,17 +3374,17 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A102" s="36" t="s">
+      <c r="A102" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="B102" s="36"/>
-      <c r="C102" s="36"/>
-      <c r="D102" s="36"/>
-      <c r="E102" s="36"/>
-      <c r="F102" s="36"/>
-      <c r="G102" s="36"/>
-      <c r="H102" s="36"/>
-      <c r="I102" s="36"/>
+      <c r="B102" s="38"/>
+      <c r="C102" s="38"/>
+      <c r="D102" s="38"/>
+      <c r="E102" s="38"/>
+      <c r="F102" s="38"/>
+      <c r="G102" s="38"/>
+      <c r="H102" s="38"/>
+      <c r="I102" s="38"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
@@ -3418,11 +3421,11 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G106" s="37" t="s">
+      <c r="G106" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="H106" s="38"/>
-      <c r="I106" s="38"/>
+      <c r="H106" s="41"/>
+      <c r="I106" s="41"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
@@ -3437,9 +3440,9 @@
       <c r="D107" t="s">
         <v>154</v>
       </c>
-      <c r="G107" s="38"/>
-      <c r="H107" s="38"/>
-      <c r="I107" s="38"/>
+      <c r="G107" s="41"/>
+      <c r="H107" s="41"/>
+      <c r="I107" s="41"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
@@ -3451,9 +3454,9 @@
       <c r="C108" t="s">
         <v>9</v>
       </c>
-      <c r="G108" s="38"/>
-      <c r="H108" s="38"/>
-      <c r="I108" s="38"/>
+      <c r="G108" s="41"/>
+      <c r="H108" s="41"/>
+      <c r="I108" s="41"/>
       <c r="J108" t="s">
         <v>142</v>
       </c>
@@ -3476,9 +3479,9 @@
       <c r="E109" t="s">
         <v>62</v>
       </c>
-      <c r="G109" s="38"/>
-      <c r="H109" s="38"/>
-      <c r="I109" s="38"/>
+      <c r="G109" s="41"/>
+      <c r="H109" s="41"/>
+      <c r="I109" s="41"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
@@ -3751,17 +3754,17 @@
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A130" s="36" t="s">
+      <c r="A130" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="B130" s="36"/>
-      <c r="C130" s="36"/>
-      <c r="D130" s="36"/>
-      <c r="E130" s="36"/>
-      <c r="F130" s="36"/>
-      <c r="G130" s="36"/>
-      <c r="H130" s="36"/>
-      <c r="I130" s="36"/>
+      <c r="B130" s="38"/>
+      <c r="C130" s="38"/>
+      <c r="D130" s="38"/>
+      <c r="E130" s="38"/>
+      <c r="F130" s="38"/>
+      <c r="G130" s="38"/>
+      <c r="H130" s="38"/>
+      <c r="I130" s="38"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
@@ -3806,10 +3809,10 @@
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F134" s="38" t="s">
+      <c r="F134" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="G134" s="38"/>
+      <c r="G134" s="41"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
@@ -3829,8 +3832,8 @@
       <c r="E135" t="s">
         <v>38</v>
       </c>
-      <c r="F135" s="38"/>
-      <c r="G135" s="38"/>
+      <c r="F135" s="41"/>
+      <c r="G135" s="41"/>
       <c r="H135" t="s">
         <v>143</v>
       </c>
@@ -3852,8 +3855,8 @@
       <c r="E136" t="s">
         <v>104</v>
       </c>
-      <c r="F136" s="38"/>
-      <c r="G136" s="38"/>
+      <c r="F136" s="41"/>
+      <c r="G136" s="41"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
@@ -4011,23 +4014,23 @@
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A152" s="36" t="s">
+      <c r="A152" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="B152" s="36"/>
-      <c r="C152" s="36"/>
-      <c r="D152" s="36"/>
-      <c r="E152" s="36"/>
-      <c r="F152" s="36"/>
-      <c r="G152" s="36"/>
-      <c r="H152" s="36"/>
-      <c r="I152" s="36"/>
+      <c r="B152" s="38"/>
+      <c r="C152" s="38"/>
+      <c r="D152" s="38"/>
+      <c r="E152" s="38"/>
+      <c r="F152" s="38"/>
+      <c r="G152" s="38"/>
+      <c r="H152" s="38"/>
+      <c r="I152" s="38"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A153" s="41" t="s">
+      <c r="A153" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="B153" s="41"/>
+      <c r="B153" s="37"/>
       <c r="C153" t="s">
         <v>181</v>
       </c>
@@ -4069,10 +4072,10 @@
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A157" s="41" t="s">
+      <c r="A157" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="B157" s="41"/>
+      <c r="B157" s="37"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
@@ -4084,10 +4087,10 @@
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A159" s="41" t="s">
+      <c r="A159" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="B159" s="41"/>
+      <c r="B159" s="37"/>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
@@ -4114,10 +4117,10 @@
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A162" s="41" t="s">
+      <c r="A162" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="B162" s="41"/>
+      <c r="B162" s="37"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
@@ -4138,10 +4141,10 @@
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A165" s="40" t="s">
+      <c r="A165" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="B165" s="40"/>
+      <c r="B165" s="36"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
@@ -4164,18 +4167,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A152:I152"/>
-    <mergeCell ref="A51:I51"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A102:I102"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="E140:F140"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="G106:I109"/>
     <mergeCell ref="A130:I130"/>
@@ -4185,6 +4176,18 @@
     <mergeCell ref="F80:G82"/>
     <mergeCell ref="F60:G62"/>
     <mergeCell ref="E70:F70"/>
+    <mergeCell ref="A152:I152"/>
+    <mergeCell ref="A51:I51"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A102:I102"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="A162:B162"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
